--- a/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
+++ b/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VScode-for-cicero\SQL-exercises\SQL-daily-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733D8922-BA2B-44C5-BB76-796681B779D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31271C31-AFA8-4286-897A-B58BB20E58F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,7 +113,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +142,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -160,10 +167,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -174,18 +184,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <font>
         <strike val="0"/>
@@ -394,6 +401,20 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -408,31 +429,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B629CBC0-4688-46B6-A989-63E83245C70D}" name="表1" displayName="表1" ref="A2:C46" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B629CBC0-4688-46B6-A989-63E83245C70D}" name="表1" displayName="表1" ref="A2:C46" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{005E177E-91E4-4FE6-815F-13085A88BF0E}" name="题目序号" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{7FD35997-B85F-4250-958B-76984A5B07CC}" name="题目难度" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{EAC9A203-540D-40E0-BCA8-7651847E7823}" name="是否已完成" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{005E177E-91E4-4FE6-815F-13085A88BF0E}" name="题目序号" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{7FD35997-B85F-4250-958B-76984A5B07CC}" name="题目难度" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{EAC9A203-540D-40E0-BCA8-7651847E7823}" name="是否已完成" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FA50FC50-273C-4CDC-AE6F-4BB06B8E7506}" name="表3" displayName="表3" ref="A1:B4" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FA50FC50-273C-4CDC-AE6F-4BB06B8E7506}" name="表3" displayName="表3" ref="A1:B4" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{460F0039-91B3-41B0-9317-390A6E562843}" name="缩写字母" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{C314FE14-B914-4DE1-B4B0-055B1B7AB960}" name="字母含义" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{460F0039-91B3-41B0-9317-390A6E562843}" name="缩写字母" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{C314FE14-B914-4DE1-B4B0-055B1B7AB960}" name="字母含义" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F0D29582-25BC-4B75-9DDD-BEABCA79AE89}" name="表4" displayName="表4" ref="D1:E2" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F0D29582-25BC-4B75-9DDD-BEABCA79AE89}" name="表4" displayName="表4" ref="D1:E2" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3FE82CEB-1383-440F-9EEA-C509306C6A32}" name="填充颜色" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{EFA8ECCB-CC90-4C37-82E5-56E24337C574}" name="代表含义" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{3FE82CEB-1383-440F-9EEA-C509306C6A32}" name="填充颜色" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{EFA8ECCB-CC90-4C37-82E5-56E24337C574}" name="代表含义" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -704,8 +725,8 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -742,11 +763,11 @@
       </c>
       <c r="F2" s="1">
         <f>COUNTIF($C$3:$C$46,1)</f>
-        <v>12</v>
-      </c>
-      <c r="G2" s="1">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4">
         <f>ROUND(F2/E2,2)</f>
-        <v>0.27</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -888,7 +909,9 @@
       <c r="B15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -897,7 +920,9 @@
       <c r="B16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -906,7 +931,9 @@
       <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -942,7 +969,9 @@
       <c r="B21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -1172,12 +1201,15 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:B46">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="14" priority="3">
       <formula>IF(C3=1,TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="1">
+      <formula>IF(C3=-1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1188,7 +1220,7 @@
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C46" xr:uid="{5EB16A4B-6099-49D7-B70E-5EC86C8AF9DE}">
-      <formula1>"0,1"</formula1>
+      <formula1>"0,1,-1"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
+++ b/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VScode-for-cicero\SQL-exercises\SQL-daily-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31271C31-AFA8-4286-897A-B58BB20E58F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECB2F55-48DA-4004-8A14-4F56ECA21FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -726,7 +726,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -942,7 +942,9 @@
       <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -989,7 +991,9 @@
       <c r="B23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">

--- a/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
+++ b/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VScode-for-cicero\SQL-exercises\SQL-daily-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECB2F55-48DA-4004-8A14-4F56ECA21FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C0E7CB-920E-40CE-80A4-A1EFC1F6C8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -725,8 +725,8 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -763,11 +763,11 @@
       </c>
       <c r="F2" s="1">
         <f>COUNTIF($C$3:$C$46,1)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G2" s="4">
         <f>ROUND(F2/E2,2)</f>
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -943,7 +943,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
@@ -953,7 +953,9 @@
       <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -992,7 +994,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">

--- a/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
+++ b/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VScode-for-cicero\SQL-exercises\SQL-daily-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C0E7CB-920E-40CE-80A4-A1EFC1F6C8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB786B0-3517-41FA-8A05-E2CFD21F1EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -726,7 +726,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -763,11 +763,11 @@
       </c>
       <c r="F2" s="1">
         <f>COUNTIF($C$3:$C$46,1)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G2" s="4">
         <f>ROUND(F2/E2,2)</f>
-        <v>0.43</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -964,7 +964,9 @@
       <c r="B20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -1004,7 +1006,9 @@
       <c r="B24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">

--- a/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
+++ b/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VScode-for-cicero\SQL-exercises\SQL-daily-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB786B0-3517-41FA-8A05-E2CFD21F1EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B3C741-14FD-4259-BBE1-B05FC02A0954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -726,7 +726,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -763,11 +763,11 @@
       </c>
       <c r="F2" s="1">
         <f>COUNTIF($C$3:$C$46,1)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" s="4">
         <f>ROUND(F2/E2,2)</f>
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
@@ -986,7 +986,9 @@
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -1017,7 +1019,9 @@
       <c r="B25" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">

--- a/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
+++ b/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VScode-for-cicero\SQL-exercises\SQL-daily-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B3C741-14FD-4259-BBE1-B05FC02A0954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975B43C2-B909-416B-AB5C-3B1CD1730F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="21">
   <si>
     <t>题目序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -77,15 +77,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>代表含义</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>填充颜色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿色</t>
+    <t>total</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratio</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>含义</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -93,19 +109,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>total</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>done</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否已完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ratio</t>
+    <t>正在解答</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未解答</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目出现次数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -192,7 +204,37 @@
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -402,18 +444,20 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -429,31 +473,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B629CBC0-4688-46B6-A989-63E83245C70D}" name="表1" displayName="表1" ref="A2:C46" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{005E177E-91E4-4FE6-815F-13085A88BF0E}" name="题目序号" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{7FD35997-B85F-4250-958B-76984A5B07CC}" name="题目难度" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{EAC9A203-540D-40E0-BCA8-7651847E7823}" name="是否已完成" dataDxfId="8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B629CBC0-4688-46B6-A989-63E83245C70D}" name="表1" displayName="表1" ref="A2:E46" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{005E177E-91E4-4FE6-815F-13085A88BF0E}" name="题目序号" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{7FD35997-B85F-4250-958B-76984A5B07CC}" name="题目难度" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{EAC9A203-540D-40E0-BCA8-7651847E7823}" name="是否已完成" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{BD2CB06A-E1C5-45E0-ABAA-8B563AE7C8A8}" name="备注" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{69B62BB9-AFE0-4D97-9B51-064E93B541A7}" name="题目出现次数" dataDxfId="0">
+      <calculatedColumnFormula>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FA50FC50-273C-4CDC-AE6F-4BB06B8E7506}" name="表3" displayName="表3" ref="A1:B4" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FA50FC50-273C-4CDC-AE6F-4BB06B8E7506}" name="表3" displayName="表3" ref="A1:B4" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{460F0039-91B3-41B0-9317-390A6E562843}" name="缩写字母" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{C314FE14-B914-4DE1-B4B0-055B1B7AB960}" name="字母含义" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{460F0039-91B3-41B0-9317-390A6E562843}" name="缩写字母" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{C314FE14-B914-4DE1-B4B0-055B1B7AB960}" name="字母含义" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F0D29582-25BC-4B75-9DDD-BEABCA79AE89}" name="表4" displayName="表4" ref="D1:E2" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F0D29582-25BC-4B75-9DDD-BEABCA79AE89}" name="表4" displayName="表4" ref="D1:E4" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3FE82CEB-1383-440F-9EEA-C509306C6A32}" name="填充颜色" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{EFA8ECCB-CC90-4C37-82E5-56E24337C574}" name="代表含义" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{98F7D5B4-744D-4C87-9D5D-D74095D6EAB0}" name="是否已完成" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{60B35FCA-AAFA-4136-8313-D6EBEAB47A72}" name="含义" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -722,55 +770,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="10.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.1640625" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="5" max="5" width="12.08203125" customWidth="1"/>
+    <col min="8" max="8" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21.5" x14ac:dyDescent="0.3">
-      <c r="E1" s="3" t="s">
+    <row r="1" spans="1:9" ht="21.5" x14ac:dyDescent="0.3">
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1">
         <f>COUNTA(表1[题目难度])</f>
         <v>44</v>
       </c>
-      <c r="F2" s="1">
+      <c r="H2" s="1">
         <f>COUNTIF($C$3:$C$46,1)</f>
-        <v>23</v>
-      </c>
-      <c r="G2" s="4">
-        <f>ROUND(F2/E2,2)</f>
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="I2" s="4">
+        <f>ROUND(H2/G2,2)</f>
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>175</v>
       </c>
@@ -780,8 +835,13 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>176</v>
       </c>
@@ -791,8 +851,13 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>177</v>
       </c>
@@ -802,8 +867,13 @@
       <c r="C5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>603</v>
       </c>
@@ -813,8 +883,13 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>180</v>
       </c>
@@ -824,8 +899,15 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>184</v>
       </c>
@@ -835,8 +917,13 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>185</v>
       </c>
@@ -846,8 +933,13 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>595</v>
       </c>
@@ -857,8 +949,13 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>196</v>
       </c>
@@ -868,8 +965,15 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>626</v>
       </c>
@@ -879,8 +983,13 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>569</v>
       </c>
@@ -890,8 +999,13 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>615</v>
       </c>
@@ -901,8 +1015,13 @@
       <c r="C14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>570</v>
       </c>
@@ -912,8 +1031,13 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>597</v>
       </c>
@@ -923,8 +1047,13 @@
       <c r="C16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>574</v>
       </c>
@@ -934,8 +1063,13 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>178</v>
       </c>
@@ -945,8 +1079,13 @@
       <c r="C18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>579</v>
       </c>
@@ -956,8 +1095,13 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>608</v>
       </c>
@@ -967,8 +1111,13 @@
       <c r="C20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>610</v>
       </c>
@@ -978,8 +1127,13 @@
       <c r="C21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>180</v>
       </c>
@@ -989,8 +1143,15 @@
       <c r="C22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>181</v>
       </c>
@@ -1000,8 +1161,13 @@
       <c r="C23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>182</v>
       </c>
@@ -1011,8 +1177,13 @@
       <c r="C24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>183</v>
       </c>
@@ -1022,207 +1193,361 @@
       <c r="C25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>196</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>197</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>262</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>571</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>577</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>578</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>580</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>584</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>585</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>586</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>596</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>601</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>602</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>607</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>612</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>613</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>614</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>618</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>619</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>620</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>627</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="1"/>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1">
+        <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:B46">
-    <cfRule type="expression" dxfId="14" priority="3">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>IF(C3=-1,TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>IF(C3=1,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="1">
-      <formula>IF(C3=-1,TRUE,FALSE)</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
+  <conditionalFormatting sqref="I2">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1250,13 +1575,13 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9.9140625" customWidth="1"/>
-    <col min="4" max="5" width="9.9140625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -1267,10 +1592,10 @@
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -1280,11 +1605,11 @@
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
+      <c r="D2" s="1">
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -1294,6 +1619,12 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1301,6 +1632,12 @@
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
+++ b/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VScode-for-cicero\SQL-exercises\SQL-daily-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975B43C2-B909-416B-AB5C-3B1CD1730F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2DA9F3-74AB-4E05-8163-1A8D91D7C8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -204,7 +204,7 @@
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
     <dxf>
       <font>
         <strike val="0"/>
@@ -222,20 +222,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -459,6 +445,30 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -473,13 +483,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B629CBC0-4688-46B6-A989-63E83245C70D}" name="表1" displayName="表1" ref="A2:E46" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B629CBC0-4688-46B6-A989-63E83245C70D}" name="表1" displayName="表1" ref="A2:E46" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{005E177E-91E4-4FE6-815F-13085A88BF0E}" name="题目序号" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{7FD35997-B85F-4250-958B-76984A5B07CC}" name="题目难度" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{EAC9A203-540D-40E0-BCA8-7651847E7823}" name="是否已完成" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{BD2CB06A-E1C5-45E0-ABAA-8B563AE7C8A8}" name="备注" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{69B62BB9-AFE0-4D97-9B51-064E93B541A7}" name="题目出现次数" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{005E177E-91E4-4FE6-815F-13085A88BF0E}" name="题目序号" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{7FD35997-B85F-4250-958B-76984A5B07CC}" name="题目难度" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{EAC9A203-540D-40E0-BCA8-7651847E7823}" name="是否已完成" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{BD2CB06A-E1C5-45E0-ABAA-8B563AE7C8A8}" name="备注" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{69B62BB9-AFE0-4D97-9B51-064E93B541A7}" name="题目出现次数" dataDxfId="8">
       <calculatedColumnFormula>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -488,20 +498,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FA50FC50-273C-4CDC-AE6F-4BB06B8E7506}" name="表3" displayName="表3" ref="A1:B4" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FA50FC50-273C-4CDC-AE6F-4BB06B8E7506}" name="表3" displayName="表3" ref="A1:B4" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{460F0039-91B3-41B0-9317-390A6E562843}" name="缩写字母" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{C314FE14-B914-4DE1-B4B0-055B1B7AB960}" name="字母含义" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{460F0039-91B3-41B0-9317-390A6E562843}" name="缩写字母" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{C314FE14-B914-4DE1-B4B0-055B1B7AB960}" name="字母含义" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F0D29582-25BC-4B75-9DDD-BEABCA79AE89}" name="表4" displayName="表4" ref="D1:E4" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F0D29582-25BC-4B75-9DDD-BEABCA79AE89}" name="表4" displayName="表4" ref="D1:E4" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <tableColumns count="2">
-    <tableColumn id="3" xr3:uid="{98F7D5B4-744D-4C87-9D5D-D74095D6EAB0}" name="是否已完成" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{60B35FCA-AAFA-4136-8313-D6EBEAB47A72}" name="含义" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{98F7D5B4-744D-4C87-9D5D-D74095D6EAB0}" name="是否已完成" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{60B35FCA-AAFA-4136-8313-D6EBEAB47A72}" name="含义" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -773,8 +783,8 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -818,11 +828,11 @@
       </c>
       <c r="H2" s="1">
         <f>COUNTIF($C$3:$C$46,1)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" s="4">
         <f>ROUND(H2/G2,2)</f>
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -1241,7 +1251,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
@@ -1540,21 +1550,26 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:B46">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="17" priority="2">
       <formula>IF(C3=-1,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="16" priority="4">
       <formula>IF(C3=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
         <color theme="0"/>
         <color rgb="FF00B050"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E46">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
+      <formula>1.5</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
+++ b/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VScode-for-cicero\SQL-exercises\SQL-daily-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2DA9F3-74AB-4E05-8163-1A8D91D7C8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4ED982-F31C-4D78-8B06-C66BE69E73AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -784,7 +784,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -828,11 +828,11 @@
       </c>
       <c r="H2" s="1">
         <f>COUNTIF($C$3:$C$46,1)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I2" s="4">
         <f>ROUND(H2/G2,2)</f>
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -1267,7 +1267,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1">

--- a/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
+++ b/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VScode-for-cicero\SQL-exercises\SQL-daily-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4ED982-F31C-4D78-8B06-C66BE69E73AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CECD7A-209C-4E72-BEE7-865A86337C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -784,7 +784,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -828,11 +828,11 @@
       </c>
       <c r="H2" s="1">
         <f>COUNTIF($C$3:$C$46,1)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I2" s="4">
         <f>ROUND(H2/G2,2)</f>
-        <v>0.64</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -1283,7 +1283,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1">
@@ -1315,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1">

--- a/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
+++ b/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VScode-for-cicero\SQL-exercises\SQL-daily-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CECD7A-209C-4E72-BEE7-865A86337C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7889FF4-8A71-40A8-804C-7AEE2D7C43DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -783,8 +783,8 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -828,11 +828,11 @@
       </c>
       <c r="H2" s="1">
         <f>COUNTIF($C$3:$C$46,1)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I2" s="4">
         <f>ROUND(H2/G2,2)</f>
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -1331,7 +1331,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1">
@@ -1347,7 +1347,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1">

--- a/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
+++ b/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VScode-for-cicero\SQL-exercises\SQL-daily-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7889FF4-8A71-40A8-804C-7AEE2D7C43DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807B9AAD-7726-47B4-A688-46AE4F027D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -784,7 +784,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33:C34"/>
+      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -828,11 +828,11 @@
       </c>
       <c r="H2" s="1">
         <f>COUNTIF($C$3:$C$46,1)</f>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I2" s="4">
         <f>ROUND(H2/G2,2)</f>
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -1363,7 +1363,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1">
@@ -1379,7 +1379,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
@@ -1427,7 +1427,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1">

--- a/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
+++ b/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VScode-for-cicero\SQL-exercises\SQL-daily-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807B9AAD-7726-47B4-A688-46AE4F027D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAF9977-C44B-4A22-A864-066A7A3D54D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -784,7 +784,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H38" sqref="H38"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -828,11 +828,11 @@
       </c>
       <c r="H2" s="1">
         <f>COUNTIF($C$3:$C$46,1)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I2" s="4">
         <f>ROUND(H2/G2,2)</f>
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -1395,7 +1395,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1">

--- a/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
+++ b/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VScode-for-cicero\SQL-exercises\SQL-daily-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAF9977-C44B-4A22-A864-066A7A3D54D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B117509B-3608-4985-AAAE-04AD156D81BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -783,8 +783,8 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -828,11 +828,11 @@
       </c>
       <c r="H2" s="1">
         <f>COUNTIF($C$3:$C$46,1)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I2" s="4">
         <f>ROUND(H2/G2,2)</f>
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -1411,7 +1411,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1">
@@ -1459,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="C41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1">

--- a/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
+++ b/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VScode-for-cicero\SQL-exercises\SQL-daily-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B117509B-3608-4985-AAAE-04AD156D81BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4549E9F0-4289-4341-BC49-25BF73417ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -784,7 +784,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
+      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -828,11 +828,11 @@
       </c>
       <c r="H2" s="1">
         <f>COUNTIF($C$3:$C$46,1)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I2" s="4">
         <f>ROUND(H2/G2,2)</f>
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -1443,7 +1443,7 @@
         <v>3</v>
       </c>
       <c r="C40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1">
@@ -1507,7 +1507,7 @@
         <v>2</v>
       </c>
       <c r="C44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1">

--- a/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
+++ b/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VScode-for-cicero\SQL-exercises\SQL-daily-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4549E9F0-4289-4341-BC49-25BF73417ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1729D2AA-D891-4443-BEAA-AB6F88FF10AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -784,7 +784,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
+      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -828,11 +828,11 @@
       </c>
       <c r="H2" s="1">
         <f>COUNTIF($C$3:$C$46,1)</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I2" s="4">
         <f>ROUND(H2/G2,2)</f>
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -1475,7 +1475,7 @@
         <v>3</v>
       </c>
       <c r="C42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1">
@@ -1523,7 +1523,7 @@
         <v>2</v>
       </c>
       <c r="C45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1">

--- a/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
+++ b/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VScode-for-cicero\SQL-exercises\SQL-daily-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1729D2AA-D891-4443-BEAA-AB6F88FF10AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9618775-F253-44A8-8A7E-98B3DA840957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -784,7 +784,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
+      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -828,11 +828,11 @@
       </c>
       <c r="H2" s="1">
         <f>COUNTIF($C$3:$C$46,1)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I2" s="4">
         <f>ROUND(H2/G2,2)</f>
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -1491,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1">
@@ -1539,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1">

--- a/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
+++ b/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VScode-for-cicero\SQL-exercises\SQL-daily-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9618775-F253-44A8-8A7E-98B3DA840957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564331BC-BC18-4A46-B141-CEFF695E72F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="166">
   <si>
     <t>题目序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -118,6 +118,447 @@
   </si>
   <si>
     <t>题目出现次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>[Medium]</t>
+  </si>
+  <si>
+    <t>[Easy]</t>
+  </si>
+  <si>
+    <t>Times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1308. Running Total for Different Genders </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1398. Customers Who Bought Product A and B but Not C </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1126. Active Businesses </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1393. Capital Gain/Loss </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1341. Movie Rating </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1607. Sellers With No Sales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1336. Number of Transactions per Visit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1384. Total Sales Amount by Year </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1303. Find the Team Size </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1517. Find Users With Valid E-Mails </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1495. Friendly Movies Streamed Last Month </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1113. Reported Posts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1412. Find the Quiet Students in All Exams </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1141. User Activity for the Past 30 Days I </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1555. Bank Account Summary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">608 Tree Node </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1142. User Activity for the Past 30 Days II </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1045 Customers Who Bought All Products </t>
+  </si>
+  <si>
+    <t xml:space="preserve">612 Shortest Distance in a Plane </t>
+  </si>
+  <si>
+    <t xml:space="preserve">601 Human Traffic of Stadium </t>
+  </si>
+  <si>
+    <t xml:space="preserve">570 Managers with at Least 5 Direct Reports </t>
+  </si>
+  <si>
+    <t xml:space="preserve">613 Shortest Distance in a Line </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1581. Customer Who Visited but Did Not Make Any Transactions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">550 Game Play Analysis IV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1127. User Purchase Platform </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1075 Project Employees I </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1084 Sales Analysis III </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1369. Get the Second Most Recent Activity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">603 Consecutive Available Seats </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1097. Game Play Analysis V </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1364. Number of Trusted Contacts of a Customer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1565. Unique Orders and Customers Per Month </t>
+  </si>
+  <si>
+    <t xml:space="preserve">183 Customers Who Never Order </t>
+  </si>
+  <si>
+    <t xml:space="preserve">181 Employees Earning More Than Their Managers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">610 Triangle Judgement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">196 Delete Duplicate Emails </t>
+  </si>
+  <si>
+    <t xml:space="preserve">597 Friend Requests I: Overall Acceptance Rate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1082 Sales Analysis I </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1112. Highest Grade For Each Student </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1454. Active Users </t>
+  </si>
+  <si>
+    <t xml:space="preserve">618 Students Report By Geography </t>
+  </si>
+  <si>
+    <t xml:space="preserve">578 Get Highest Answer Rate Question </t>
+  </si>
+  <si>
+    <t xml:space="preserve">627 Swap Salary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1322. Ads Performance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1225. Report Contiguous Dates </t>
+  </si>
+  <si>
+    <t xml:space="preserve">595 Big Countries </t>
+  </si>
+  <si>
+    <t xml:space="preserve">586 Customer Placing the Largest Number of Orders </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1350. Students With Invalid Departments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1378. Replace Employee ID with The Unique Identifier </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1479. Sales by Day of the Week </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1543. Fix Product Name Format </t>
+  </si>
+  <si>
+    <t xml:space="preserve">607 Sales Person </t>
+  </si>
+  <si>
+    <t xml:space="preserve">584 Find Customer Referee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1421. NPV Queries </t>
+  </si>
+  <si>
+    <t xml:space="preserve">571 Find Median Given Frequency of Numbers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1205. Monthly Transactions II </t>
+  </si>
+  <si>
+    <t xml:space="preserve">197 Rising Temperature </t>
+  </si>
+  <si>
+    <t xml:space="preserve">580 Count Student Number in Departments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1587. Bank Account Summary II </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1549. The Most Recent Orders for Each Product </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1294. Weather Type in Each Country </t>
+  </si>
+  <si>
+    <t xml:space="preserve">180 Consecutive Numbers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1501. Countries You Can Safely Invest In </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1484. Group Sold Products By The Date </t>
+  </si>
+  <si>
+    <t xml:space="preserve">619 Biggest Single Number </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1148. Article Views I </t>
+  </si>
+  <si>
+    <t xml:space="preserve">177 Nth Highest Salary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">512 Game Play Analysis II </t>
+  </si>
+  <si>
+    <t xml:space="preserve">178 Rank Scores </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1149. Article Views II </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1069 Product Sales Analysis II </t>
+  </si>
+  <si>
+    <t xml:space="preserve">577 Employee Bonus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1077 Project Employees III </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1107. New Users Daily Count </t>
+  </si>
+  <si>
+    <t xml:space="preserve">262 Trips and Users </t>
+  </si>
+  <si>
+    <t xml:space="preserve">534 Game Play Analysis III </t>
+  </si>
+  <si>
+    <t xml:space="preserve">185 Department Top Three Salaries </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1241. Number of Comments per Post </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1179. Reformat Department Table </t>
+  </si>
+  <si>
+    <t xml:space="preserve">620 Not Boring Movies </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1098. Unpopular Books </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1571. Warehouse Manager </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1270. All People Report to the Given Manager </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1468. Calculate Salaries </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1407. Top Travellers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1321. Restaurant Growth </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1212. Team Scores in Football Tournament </t>
+  </si>
+  <si>
+    <t xml:space="preserve">579 Find Cumulative Salary of an Employee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1083 Sales Analysis II </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1068 Product Sales Analysis I </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1613. Find the Missing IDs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1174. Immediate Food Delivery II </t>
+  </si>
+  <si>
+    <t xml:space="preserve">184 Department Highest Salary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1076 Project Employees II </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1173. Immediate Food Delivery I </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1251. Average Selling Price </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1435. Create a Session Bar Chart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">175 Combine Two Tables </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1158. Market Analysis I </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1159. Market Analysis II </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1280. Students and Examinations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1623. All Valid Triplets That Can Represent a Country </t>
+  </si>
+  <si>
+    <t xml:space="preserve">615 Average Salary: Departments VS Company </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1527. Patients With a Condition </t>
+  </si>
+  <si>
+    <t xml:space="preserve">182 Duplicate Emails </t>
+  </si>
+  <si>
+    <t xml:space="preserve">602 Friend Requests II: Who Has the Most Friends </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1204. Last Person to Fit in the Elevator </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1132. Reported Posts II </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1440. Evaluate Boolean Expression </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1596. Most Frequent Products of Each Customer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">176 Second Highest Salary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1459. Rectangles Area </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1050 Actors and Directors Who Cooperated At Least Three Times </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1445. Apples &amp; Oranges </t>
+  </si>
+  <si>
+    <t xml:space="preserve">585 Investments in 2016 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1264. Page Recommendations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1211. Queries Quality and Percentage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">511 Game Play Analysis I </t>
+  </si>
+  <si>
+    <t xml:space="preserve">569 Median Employee Salary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">614 Second Degree Follower </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1511. Customer Order Frequency </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1070 Product Sales Analysis III </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1194. Tournament Winners </t>
+  </si>
+  <si>
+    <t xml:space="preserve">626 Exchange Seats </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1532. The Most Recent Three Orders </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1327. List the Products Ordered in a Period </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1285. Find the Start and End Number of Continuous Ranges </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1355. Activity Participants </t>
+  </si>
+  <si>
+    <t xml:space="preserve">596 Classes More Than 5 Students </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1193. Monthly Transactions I </t>
+  </si>
+  <si>
+    <t xml:space="preserve">574 Winning Candidate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1164. Product Price at a Given Date </t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>题目难度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已做</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据来源：https://zhuanlan.zhihu.com/p/265247944</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据来源：https://www.1point3acres.com/bbs/thread-474445-1-1.html</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -125,7 +566,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +602,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -170,7 +618,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -178,14 +626,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -199,27 +663,123 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2" xr:uid="{17B40C06-6F66-4682-B2EE-501F5D3E0C51}"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="33">
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
+        <color rgb="FF9C5700"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -350,6 +910,28 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -447,27 +1029,19 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -483,13 +1057,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B629CBC0-4688-46B6-A989-63E83245C70D}" name="表1" displayName="表1" ref="A2:E46" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B629CBC0-4688-46B6-A989-63E83245C70D}" name="表1" displayName="表1" ref="A2:E46" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{005E177E-91E4-4FE6-815F-13085A88BF0E}" name="题目序号" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{7FD35997-B85F-4250-958B-76984A5B07CC}" name="题目难度" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{EAC9A203-540D-40E0-BCA8-7651847E7823}" name="是否已完成" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{BD2CB06A-E1C5-45E0-ABAA-8B563AE7C8A8}" name="备注" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{69B62BB9-AFE0-4D97-9B51-064E93B541A7}" name="题目出现次数" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{005E177E-91E4-4FE6-815F-13085A88BF0E}" name="题目序号" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{7FD35997-B85F-4250-958B-76984A5B07CC}" name="题目难度" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{EAC9A203-540D-40E0-BCA8-7651847E7823}" name="是否已完成" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{BD2CB06A-E1C5-45E0-ABAA-8B563AE7C8A8}" name="备注" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{69B62BB9-AFE0-4D97-9B51-064E93B541A7}" name="题目出现次数" dataDxfId="26">
       <calculatedColumnFormula>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -498,20 +1072,47 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FA50FC50-273C-4CDC-AE6F-4BB06B8E7506}" name="表3" displayName="表3" ref="A1:B4" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{460F0039-91B3-41B0-9317-390A6E562843}" name="缩写字母" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{C314FE14-B914-4DE1-B4B0-055B1B7AB960}" name="字母含义" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD2FCCAB-AF25-4246-8F4F-2086D16544FB}" name="表2" displayName="表2" ref="L2:P134" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="L2:P134" xr:uid="{BD2FCCAB-AF25-4246-8F4F-2086D16544FB}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="#N/A"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L3:P134">
+    <sortCondition ref="O2:O134"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{002509E6-F1C2-4B0A-82D4-44E5092466EF}" name="是否已做" dataDxfId="23">
+      <calculatedColumnFormula>VLOOKUP(O3,$A:$A,1,0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{FEF3AA96-D937-4057-A821-EB30878B5D18}" name="name" dataDxfId="22" dataCellStyle="常规 2"/>
+    <tableColumn id="3" xr3:uid="{32435150-75D0-4A17-B689-376DAABAC756}" name="题目难度" dataDxfId="21" dataCellStyle="常规 2"/>
+    <tableColumn id="4" xr3:uid="{B37A914E-53C2-4D2E-83D1-053055DBF215}" name="序号" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{EF9B048F-180C-4800-90BC-4DD0F5723C41}" name="是否已完成" dataDxfId="19">
+      <calculatedColumnFormula>IF(L3=O3,1,0)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F0D29582-25BC-4B75-9DDD-BEABCA79AE89}" name="表4" displayName="表4" ref="D1:E4" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FA50FC50-273C-4CDC-AE6F-4BB06B8E7506}" name="表3" displayName="表3" ref="A1:B4" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <tableColumns count="2">
-    <tableColumn id="3" xr3:uid="{98F7D5B4-744D-4C87-9D5D-D74095D6EAB0}" name="是否已完成" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{60B35FCA-AAFA-4136-8313-D6EBEAB47A72}" name="含义" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{460F0039-91B3-41B0-9317-390A6E562843}" name="缩写字母" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{C314FE14-B914-4DE1-B4B0-055B1B7AB960}" name="字母含义" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F0D29582-25BC-4B75-9DDD-BEABCA79AE89}" name="表4" displayName="表4" ref="D1:E4" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <tableColumns count="2">
+    <tableColumn id="3" xr3:uid="{98F7D5B4-744D-4C87-9D5D-D74095D6EAB0}" name="是否已完成" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{60B35FCA-AAFA-4136-8313-D6EBEAB47A72}" name="含义" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -780,11 +1381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:W134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -793,9 +1394,17 @@
     <col min="3" max="3" width="11.1640625" customWidth="1"/>
     <col min="5" max="5" width="12.08203125" customWidth="1"/>
     <col min="8" max="8" width="9.75" customWidth="1"/>
+    <col min="12" max="12" width="9.9140625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="18" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="5"/>
+    <col min="16" max="16" width="12.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="21.5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>165</v>
+      </c>
       <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
@@ -805,8 +1414,22 @@
       <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -834,8 +1457,37 @@
         <f>ROUND(H2/G2,2)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="R2" s="9">
+        <f>COUNTA(N2:N134)</f>
+        <v>133</v>
+      </c>
+      <c r="S2" s="9">
+        <f>COUNTIF($P$3:$P$134,1)</f>
+        <v>42</v>
+      </c>
+      <c r="T2" s="10">
+        <f>ROUND(S2/R2,2)</f>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>175</v>
       </c>
@@ -850,8 +1502,25 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L3" s="5">
+        <f t="shared" ref="L3:L34" si="0">VLOOKUP(O3,$A:$A,1,0)</f>
+        <v>175</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O3" s="5">
+        <v>175</v>
+      </c>
+      <c r="P3" s="5">
+        <f t="shared" ref="P3:P66" si="1">IF(L3=O3,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>176</v>
       </c>
@@ -866,8 +1535,25 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L4" s="5">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O4" s="5">
+        <v>176</v>
+      </c>
+      <c r="P4" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>177</v>
       </c>
@@ -882,8 +1568,25 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L5" s="5">
+        <f t="shared" si="0"/>
+        <v>177</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O5" s="5">
+        <v>177</v>
+      </c>
+      <c r="P5" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>603</v>
       </c>
@@ -898,8 +1601,25 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L6" s="5">
+        <f t="shared" si="0"/>
+        <v>178</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O6" s="5">
+        <v>178</v>
+      </c>
+      <c r="P6" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>180</v>
       </c>
@@ -916,8 +1636,25 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L7" s="5">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O7" s="5">
+        <v>180</v>
+      </c>
+      <c r="P7" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>184</v>
       </c>
@@ -932,8 +1669,25 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L8" s="5">
+        <f t="shared" si="0"/>
+        <v>181</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O8" s="5">
+        <v>181</v>
+      </c>
+      <c r="P8" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>185</v>
       </c>
@@ -948,8 +1702,25 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L9" s="5">
+        <f t="shared" si="0"/>
+        <v>182</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O9" s="5">
+        <v>182</v>
+      </c>
+      <c r="P9" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>595</v>
       </c>
@@ -964,8 +1735,25 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L10" s="5">
+        <f t="shared" si="0"/>
+        <v>183</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O10" s="5">
+        <v>183</v>
+      </c>
+      <c r="P10" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>196</v>
       </c>
@@ -982,8 +1770,25 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L11" s="5">
+        <f t="shared" si="0"/>
+        <v>184</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O11" s="5">
+        <v>184</v>
+      </c>
+      <c r="P11" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>626</v>
       </c>
@@ -998,8 +1803,25 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L12" s="5">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="O12" s="5">
+        <v>185</v>
+      </c>
+      <c r="P12" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>569</v>
       </c>
@@ -1014,8 +1836,25 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L13" s="5">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O13" s="5">
+        <v>196</v>
+      </c>
+      <c r="P13" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>615</v>
       </c>
@@ -1030,8 +1869,25 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L14" s="5">
+        <f t="shared" si="0"/>
+        <v>197</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O14" s="5">
+        <v>197</v>
+      </c>
+      <c r="P14" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>570</v>
       </c>
@@ -1046,8 +1902,25 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L15" s="5">
+        <f t="shared" si="0"/>
+        <v>262</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="O15" s="5">
+        <v>262</v>
+      </c>
+      <c r="P15" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>597</v>
       </c>
@@ -1062,8 +1935,24 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L16" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O16" s="5">
+        <v>511</v>
+      </c>
+      <c r="P16" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>574</v>
       </c>
@@ -1078,8 +1967,24 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L17" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O17" s="5">
+        <v>512</v>
+      </c>
+      <c r="P17" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>178</v>
       </c>
@@ -1094,8 +1999,24 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L18" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O18" s="5">
+        <v>534</v>
+      </c>
+      <c r="P18" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>579</v>
       </c>
@@ -1110,8 +2031,25 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L19" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O19" s="5">
+        <v>550</v>
+      </c>
+      <c r="P19" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>608</v>
       </c>
@@ -1126,8 +2064,25 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L20" s="5">
+        <f t="shared" si="0"/>
+        <v>569</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="O20" s="5">
+        <v>569</v>
+      </c>
+      <c r="P20" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>610</v>
       </c>
@@ -1142,8 +2097,25 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L21" s="5">
+        <f t="shared" si="0"/>
+        <v>570</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O21" s="5">
+        <v>570</v>
+      </c>
+      <c r="P21" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>180</v>
       </c>
@@ -1160,8 +2132,25 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L22" s="5">
+        <f t="shared" si="0"/>
+        <v>571</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="O22" s="5">
+        <v>571</v>
+      </c>
+      <c r="P22" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>181</v>
       </c>
@@ -1176,8 +2165,25 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L23" s="5">
+        <f t="shared" si="0"/>
+        <v>574</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O23" s="5">
+        <v>574</v>
+      </c>
+      <c r="P23" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>182</v>
       </c>
@@ -1192,8 +2198,25 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L24" s="5">
+        <f t="shared" si="0"/>
+        <v>577</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O24" s="5">
+        <v>577</v>
+      </c>
+      <c r="P24" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>183</v>
       </c>
@@ -1208,8 +2231,25 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L25" s="5">
+        <f t="shared" si="0"/>
+        <v>578</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O25" s="5">
+        <v>578</v>
+      </c>
+      <c r="P25" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>196</v>
       </c>
@@ -1226,8 +2266,25 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L26" s="5">
+        <f t="shared" si="0"/>
+        <v>579</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="O26" s="5">
+        <v>579</v>
+      </c>
+      <c r="P26" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>197</v>
       </c>
@@ -1242,8 +2299,25 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L27" s="5">
+        <f t="shared" si="0"/>
+        <v>580</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O27" s="5">
+        <v>580</v>
+      </c>
+      <c r="P27" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>262</v>
       </c>
@@ -1258,8 +2332,25 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L28" s="5">
+        <f t="shared" si="0"/>
+        <v>584</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O28" s="5">
+        <v>584</v>
+      </c>
+      <c r="P28" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>571</v>
       </c>
@@ -1274,8 +2365,25 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L29" s="5">
+        <f t="shared" si="0"/>
+        <v>585</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="N29" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O29" s="5">
+        <v>585</v>
+      </c>
+      <c r="P29" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>577</v>
       </c>
@@ -1290,8 +2398,25 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L30" s="5">
+        <f t="shared" si="0"/>
+        <v>586</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O30" s="5">
+        <v>586</v>
+      </c>
+      <c r="P30" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>578</v>
       </c>
@@ -1306,8 +2431,25 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L31" s="5">
+        <f t="shared" si="0"/>
+        <v>595</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O31" s="5">
+        <v>595</v>
+      </c>
+      <c r="P31" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>580</v>
       </c>
@@ -1322,8 +2464,25 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L32" s="5">
+        <f t="shared" si="0"/>
+        <v>596</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O32" s="5">
+        <v>596</v>
+      </c>
+      <c r="P32" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>584</v>
       </c>
@@ -1338,8 +2497,25 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L33" s="5">
+        <f t="shared" si="0"/>
+        <v>597</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O33" s="5">
+        <v>597</v>
+      </c>
+      <c r="P33" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>585</v>
       </c>
@@ -1354,8 +2530,25 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L34" s="5">
+        <f t="shared" si="0"/>
+        <v>601</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="O34" s="5">
+        <v>601</v>
+      </c>
+      <c r="P34" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>586</v>
       </c>
@@ -1370,8 +2563,25 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L35" s="5">
+        <f t="shared" ref="L35:L66" si="2">VLOOKUP(O35,$A:$A,1,0)</f>
+        <v>602</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O35" s="5">
+        <v>602</v>
+      </c>
+      <c r="P35" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>596</v>
       </c>
@@ -1386,8 +2596,25 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L36" s="5">
+        <f t="shared" si="2"/>
+        <v>603</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O36" s="5">
+        <v>603</v>
+      </c>
+      <c r="P36" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>601</v>
       </c>
@@ -1402,8 +2629,25 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L37" s="5">
+        <f t="shared" si="2"/>
+        <v>607</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O37" s="5">
+        <v>607</v>
+      </c>
+      <c r="P37" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>602</v>
       </c>
@@ -1418,8 +2662,25 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L38" s="5">
+        <f t="shared" si="2"/>
+        <v>608</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O38" s="5">
+        <v>608</v>
+      </c>
+      <c r="P38" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>607</v>
       </c>
@@ -1434,8 +2695,25 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L39" s="5">
+        <f t="shared" si="2"/>
+        <v>610</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="N39" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O39" s="5">
+        <v>610</v>
+      </c>
+      <c r="P39" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>612</v>
       </c>
@@ -1450,8 +2728,25 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L40" s="5">
+        <f t="shared" si="2"/>
+        <v>612</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N40" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O40" s="5">
+        <v>612</v>
+      </c>
+      <c r="P40" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>613</v>
       </c>
@@ -1466,8 +2761,25 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L41" s="5">
+        <f t="shared" si="2"/>
+        <v>613</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N41" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O41" s="5">
+        <v>613</v>
+      </c>
+      <c r="P41" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>614</v>
       </c>
@@ -1482,8 +2794,25 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L42" s="5">
+        <f t="shared" si="2"/>
+        <v>614</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="N42" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O42" s="5">
+        <v>614</v>
+      </c>
+      <c r="P42" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>618</v>
       </c>
@@ -1498,8 +2827,25 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L43" s="5">
+        <f t="shared" si="2"/>
+        <v>615</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="N43" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="O43" s="5">
+        <v>615</v>
+      </c>
+      <c r="P43" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>619</v>
       </c>
@@ -1514,8 +2860,25 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L44" s="5">
+        <f t="shared" si="2"/>
+        <v>618</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="O44" s="5">
+        <v>618</v>
+      </c>
+      <c r="P44" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>620</v>
       </c>
@@ -1530,8 +2893,25 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L45" s="5">
+        <f t="shared" si="2"/>
+        <v>619</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N45" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O45" s="5">
+        <v>619</v>
+      </c>
+      <c r="P45" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>627</v>
       </c>
@@ -1546,19 +2926,1717 @@
         <f>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</f>
         <v>1</v>
       </c>
+      <c r="L46" s="5">
+        <f t="shared" si="2"/>
+        <v>620</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N46" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O46" s="5">
+        <v>620</v>
+      </c>
+      <c r="P46" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L47" s="5">
+        <f t="shared" si="2"/>
+        <v>626</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="N47" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O47" s="5">
+        <v>626</v>
+      </c>
+      <c r="P47" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L48" s="5">
+        <f t="shared" si="2"/>
+        <v>627</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N48" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O48" s="5">
+        <v>627</v>
+      </c>
+      <c r="P48" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L49" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N49" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O49" s="5">
+        <v>1045</v>
+      </c>
+      <c r="P49" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L50" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="N50" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O50" s="5">
+        <v>1050</v>
+      </c>
+      <c r="P50" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L51" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="N51" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O51" s="5">
+        <v>1068</v>
+      </c>
+      <c r="P51" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L52" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="N52" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O52" s="5">
+        <v>1069</v>
+      </c>
+      <c r="P52" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L53" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="N53" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O53" s="5">
+        <v>1070</v>
+      </c>
+      <c r="P53" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L54" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N54" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O54" s="5">
+        <v>1075</v>
+      </c>
+      <c r="P54" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L55" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="N55" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O55" s="5">
+        <v>1076</v>
+      </c>
+      <c r="P55" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L56" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="N56" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O56" s="5">
+        <v>1077</v>
+      </c>
+      <c r="P56" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L57" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N57" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O57" s="5">
+        <v>1082</v>
+      </c>
+      <c r="P57" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L58" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="N58" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O58" s="5">
+        <v>1083</v>
+      </c>
+      <c r="P58" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L59" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N59" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O59" s="5">
+        <v>1084</v>
+      </c>
+      <c r="P59" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L60" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N60" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="O60" s="5">
+        <v>1097</v>
+      </c>
+      <c r="P60" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L61" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="N61" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O61" s="5">
+        <v>1098</v>
+      </c>
+      <c r="P61" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L62" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="N62" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O62" s="5">
+        <v>1107</v>
+      </c>
+      <c r="P62" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L63" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N63" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O63" s="5">
+        <v>1112</v>
+      </c>
+      <c r="P63" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L64" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M64" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N64" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O64" s="5">
+        <v>1113</v>
+      </c>
+      <c r="P64" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L65" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M65" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N65" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O65" s="5">
+        <v>1126</v>
+      </c>
+      <c r="P65" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L66" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N66" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="O66" s="5">
+        <v>1127</v>
+      </c>
+      <c r="P66" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L67" s="5" t="e">
+        <f t="shared" ref="L67:L98" si="3">VLOOKUP(O67,$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M67" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="N67" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O67" s="5">
+        <v>1132</v>
+      </c>
+      <c r="P67" s="5" t="e">
+        <f t="shared" ref="P67:P130" si="4">IF(L67=O67,1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L68" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M68" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N68" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O68" s="5">
+        <v>1141</v>
+      </c>
+      <c r="P68" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L69" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M69" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N69" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O69" s="5">
+        <v>1142</v>
+      </c>
+      <c r="P69" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L70" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M70" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="N70" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O70" s="5">
+        <v>1148</v>
+      </c>
+      <c r="P70" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="71" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L71" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M71" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="N71" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O71" s="5">
+        <v>1149</v>
+      </c>
+      <c r="P71" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L72" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="N72" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O72" s="5">
+        <v>1158</v>
+      </c>
+      <c r="P72" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L73" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M73" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N73" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="O73" s="5">
+        <v>1159</v>
+      </c>
+      <c r="P73" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="74" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L74" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M74" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="N74" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O74" s="5">
+        <v>1164</v>
+      </c>
+      <c r="P74" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="75" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L75" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M75" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="N75" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O75" s="5">
+        <v>1173</v>
+      </c>
+      <c r="P75" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="76" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L76" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M76" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N76" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O76" s="5">
+        <v>1174</v>
+      </c>
+      <c r="P76" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="77" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L77" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M77" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="N77" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O77" s="5">
+        <v>1179</v>
+      </c>
+      <c r="P77" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="78" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L78" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M78" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="N78" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O78" s="5">
+        <v>1193</v>
+      </c>
+      <c r="P78" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="79" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L79" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M79" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="N79" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="O79" s="5">
+        <v>1194</v>
+      </c>
+      <c r="P79" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="80" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L80" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M80" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="N80" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O80" s="5">
+        <v>1204</v>
+      </c>
+      <c r="P80" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="81" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L81" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M81" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N81" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O81" s="5">
+        <v>1205</v>
+      </c>
+      <c r="P81" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="82" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L82" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M82" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="N82" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O82" s="5">
+        <v>1211</v>
+      </c>
+      <c r="P82" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="83" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L83" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M83" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="N83" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O83" s="5">
+        <v>1212</v>
+      </c>
+      <c r="P83" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="84" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L84" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M84" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N84" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="O84" s="5">
+        <v>1225</v>
+      </c>
+      <c r="P84" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L85" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M85" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="N85" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O85" s="5">
+        <v>1241</v>
+      </c>
+      <c r="P85" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="86" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L86" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M86" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="N86" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O86" s="5">
+        <v>1251</v>
+      </c>
+      <c r="P86" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="87" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L87" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M87" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="N87" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O87" s="5">
+        <v>1264</v>
+      </c>
+      <c r="P87" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="88" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L88" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M88" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="N88" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O88" s="5">
+        <v>1270</v>
+      </c>
+      <c r="P88" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="89" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L89" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M89" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="N89" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O89" s="5">
+        <v>1280</v>
+      </c>
+      <c r="P89" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="90" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L90" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M90" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="N90" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O90" s="5">
+        <v>1285</v>
+      </c>
+      <c r="P90" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="91" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L91" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M91" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N91" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O91" s="5">
+        <v>1294</v>
+      </c>
+      <c r="P91" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="92" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L92" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M92" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N92" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O92" s="5">
+        <v>1303</v>
+      </c>
+      <c r="P92" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="93" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L93" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M93" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N93" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O93" s="5">
+        <v>1308</v>
+      </c>
+      <c r="P93" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="94" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L94" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M94" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="N94" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O94" s="5">
+        <v>1321</v>
+      </c>
+      <c r="P94" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="95" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L95" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M95" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="N95" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O95" s="5">
+        <v>1322</v>
+      </c>
+      <c r="P95" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="96" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L96" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M96" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="N96" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O96" s="5">
+        <v>1327</v>
+      </c>
+      <c r="P96" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="97" spans="12:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L97" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M97" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N97" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="O97" s="5">
+        <v>1336</v>
+      </c>
+      <c r="P97" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="98" spans="12:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L98" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M98" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N98" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O98" s="5">
+        <v>1341</v>
+      </c>
+      <c r="P98" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="99" spans="12:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L99" s="5" t="e">
+        <f t="shared" ref="L99:L134" si="5">VLOOKUP(O99,$A:$A,1,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M99" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="N99" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O99" s="5">
+        <v>1350</v>
+      </c>
+      <c r="P99" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="100" spans="12:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L100" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M100" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="N100" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O100" s="5">
+        <v>1355</v>
+      </c>
+      <c r="P100" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="101" spans="12:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L101" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M101" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N101" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O101" s="5">
+        <v>1364</v>
+      </c>
+      <c r="P101" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="102" spans="12:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L102" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M102" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N102" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="O102" s="5">
+        <v>1369</v>
+      </c>
+      <c r="P102" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="103" spans="12:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L103" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M103" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="N103" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O103" s="5">
+        <v>1378</v>
+      </c>
+      <c r="P103" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="104" spans="12:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L104" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M104" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N104" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="O104" s="5">
+        <v>1384</v>
+      </c>
+      <c r="P104" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="105" spans="12:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L105" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M105" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N105" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O105" s="5">
+        <v>1393</v>
+      </c>
+      <c r="P105" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="106" spans="12:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L106" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M106" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N106" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O106" s="5">
+        <v>1398</v>
+      </c>
+      <c r="P106" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="107" spans="12:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L107" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M107" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="N107" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O107" s="5">
+        <v>1407</v>
+      </c>
+      <c r="P107" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="108" spans="12:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L108" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M108" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N108" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="O108" s="5">
+        <v>1412</v>
+      </c>
+      <c r="P108" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V108" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109" spans="12:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L109" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M109" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="N109" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O109" s="5">
+        <v>1421</v>
+      </c>
+      <c r="P109" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="110" spans="12:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L110" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M110" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="N110" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O110" s="5">
+        <v>1435</v>
+      </c>
+      <c r="P110" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="111" spans="12:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L111" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M111" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="N111" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O111" s="5">
+        <v>1440</v>
+      </c>
+      <c r="P111" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="112" spans="12:22" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L112" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M112" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="N112" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O112" s="5">
+        <v>1445</v>
+      </c>
+      <c r="P112" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="113" spans="12:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L113" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M113" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N113" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O113" s="5">
+        <v>1454</v>
+      </c>
+      <c r="P113" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="114" spans="12:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L114" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M114" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="N114" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O114" s="5">
+        <v>1459</v>
+      </c>
+      <c r="P114" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="115" spans="12:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L115" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M115" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="N115" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O115" s="5">
+        <v>1468</v>
+      </c>
+      <c r="P115" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V115" t="s">
+        <v>24</v>
+      </c>
+      <c r="W115" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116" spans="12:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L116" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M116" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N116" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="O116" s="5">
+        <v>1479</v>
+      </c>
+      <c r="P116" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="117" spans="12:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L117" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M117" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N117" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O117" s="5">
+        <v>1484</v>
+      </c>
+      <c r="P117" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="118" spans="12:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L118" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M118" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N118" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O118" s="5">
+        <v>1495</v>
+      </c>
+      <c r="P118" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="119" spans="12:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L119" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M119" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="N119" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O119" s="5">
+        <v>1501</v>
+      </c>
+      <c r="P119" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="120" spans="12:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L120" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M120" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="N120" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O120" s="5">
+        <v>1511</v>
+      </c>
+      <c r="P120" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="121" spans="12:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L121" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M121" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N121" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O121" s="5">
+        <v>1517</v>
+      </c>
+      <c r="P121" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="122" spans="12:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L122" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M122" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="N122" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O122" s="5">
+        <v>1527</v>
+      </c>
+      <c r="P122" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="123" spans="12:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L123" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M123" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="N123" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O123" s="5">
+        <v>1532</v>
+      </c>
+      <c r="P123" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="124" spans="12:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L124" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M124" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N124" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O124" s="5">
+        <v>1543</v>
+      </c>
+      <c r="P124" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="125" spans="12:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L125" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M125" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="N125" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O125" s="5">
+        <v>1549</v>
+      </c>
+      <c r="P125" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="126" spans="12:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L126" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M126" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N126" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O126" s="5">
+        <v>1555</v>
+      </c>
+      <c r="P126" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="127" spans="12:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L127" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M127" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N127" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O127" s="5">
+        <v>1565</v>
+      </c>
+      <c r="P127" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="128" spans="12:23" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L128" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M128" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="N128" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O128" s="5">
+        <v>1571</v>
+      </c>
+      <c r="P128" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="129" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L129" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M129" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="N129" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O129" s="5">
+        <v>1581</v>
+      </c>
+      <c r="P129" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="130" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L130" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M130" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N130" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O130" s="5">
+        <v>1587</v>
+      </c>
+      <c r="P130" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="131" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L131" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M131" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="N131" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O131" s="5">
+        <v>1596</v>
+      </c>
+      <c r="P131" s="5" t="e">
+        <f t="shared" ref="P131:P134" si="6">IF(L131=O131,1,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="132" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L132" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M132" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N132" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O132" s="5">
+        <v>1607</v>
+      </c>
+      <c r="P132" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="133" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L133" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M133" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="N133" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O133" s="5">
+        <v>1613</v>
+      </c>
+      <c r="P133" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="134" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L134" s="5" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M134" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N134" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O134" s="5">
+        <v>1623</v>
+      </c>
+      <c r="P134" s="5" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:B46">
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>IF(C3=-1,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="4">
+    <cfRule type="expression" dxfId="9" priority="8">
       <formula>IF(C3=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="I2:K2">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1568,8 +4646,31 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E46">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="greaterThan">
       <formula>1.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L134">
+    <cfRule type="expression" dxfId="7" priority="4">
+      <formula>IF(L3=O3,TRUE,flase)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1048576">
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T2">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -1579,8 +4680,9 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
+++ b/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VScode-for-cicero\SQL-exercises\SQL-daily-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564331BC-BC18-4A46-B141-CEFF695E72F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329EC8C2-3A74-4624-84CE-5A0D573B4AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -688,99 +688,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="2" xr:uid="{17B40C06-6F66-4682-B2EE-501F5D3E0C51}"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="29">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1043,6 +951,64 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1057,13 +1023,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B629CBC0-4688-46B6-A989-63E83245C70D}" name="表1" displayName="表1" ref="A2:E46" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B629CBC0-4688-46B6-A989-63E83245C70D}" name="表1" displayName="表1" ref="A2:E46" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{005E177E-91E4-4FE6-815F-13085A88BF0E}" name="题目序号" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{7FD35997-B85F-4250-958B-76984A5B07CC}" name="题目难度" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{EAC9A203-540D-40E0-BCA8-7651847E7823}" name="是否已完成" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{BD2CB06A-E1C5-45E0-ABAA-8B563AE7C8A8}" name="备注" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{69B62BB9-AFE0-4D97-9B51-064E93B541A7}" name="题目出现次数" dataDxfId="26">
+    <tableColumn id="1" xr3:uid="{005E177E-91E4-4FE6-815F-13085A88BF0E}" name="题目序号" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{7FD35997-B85F-4250-958B-76984A5B07CC}" name="题目难度" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{EAC9A203-540D-40E0-BCA8-7651847E7823}" name="是否已完成" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{BD2CB06A-E1C5-45E0-ABAA-8B563AE7C8A8}" name="备注" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{69B62BB9-AFE0-4D97-9B51-064E93B541A7}" name="题目出现次数" dataDxfId="15">
       <calculatedColumnFormula>COUNTIF(表1[题目序号],表1[[#This Row],[题目序号]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1072,25 +1038,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD2FCCAB-AF25-4246-8F4F-2086D16544FB}" name="表2" displayName="表2" ref="L2:P134" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
-  <autoFilter ref="L2:P134" xr:uid="{BD2FCCAB-AF25-4246-8F4F-2086D16544FB}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="#N/A"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD2FCCAB-AF25-4246-8F4F-2086D16544FB}" name="表2" displayName="表2" ref="L2:P134" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="L2:P134" xr:uid="{BD2FCCAB-AF25-4246-8F4F-2086D16544FB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L3:P134">
     <sortCondition ref="O2:O134"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{002509E6-F1C2-4B0A-82D4-44E5092466EF}" name="是否已做" dataDxfId="23">
+    <tableColumn id="1" xr3:uid="{002509E6-F1C2-4B0A-82D4-44E5092466EF}" name="是否已做" dataDxfId="12">
       <calculatedColumnFormula>VLOOKUP(O3,$A:$A,1,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{FEF3AA96-D937-4057-A821-EB30878B5D18}" name="name" dataDxfId="22" dataCellStyle="常规 2"/>
-    <tableColumn id="3" xr3:uid="{32435150-75D0-4A17-B689-376DAABAC756}" name="题目难度" dataDxfId="21" dataCellStyle="常规 2"/>
-    <tableColumn id="4" xr3:uid="{B37A914E-53C2-4D2E-83D1-053055DBF215}" name="序号" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{EF9B048F-180C-4800-90BC-4DD0F5723C41}" name="是否已完成" dataDxfId="19">
+    <tableColumn id="2" xr3:uid="{FEF3AA96-D937-4057-A821-EB30878B5D18}" name="name" dataDxfId="11" dataCellStyle="常规 2"/>
+    <tableColumn id="3" xr3:uid="{32435150-75D0-4A17-B689-376DAABAC756}" name="题目难度" dataDxfId="10" dataCellStyle="常规 2"/>
+    <tableColumn id="4" xr3:uid="{B37A914E-53C2-4D2E-83D1-053055DBF215}" name="序号" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{EF9B048F-180C-4800-90BC-4DD0F5723C41}" name="是否已完成" dataDxfId="8">
       <calculatedColumnFormula>IF(L3=O3,1,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1099,20 +1059,20 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FA50FC50-273C-4CDC-AE6F-4BB06B8E7506}" name="表3" displayName="表3" ref="A1:B4" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FA50FC50-273C-4CDC-AE6F-4BB06B8E7506}" name="表3" displayName="表3" ref="A1:B4" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{460F0039-91B3-41B0-9317-390A6E562843}" name="缩写字母" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{C314FE14-B914-4DE1-B4B0-055B1B7AB960}" name="字母含义" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{460F0039-91B3-41B0-9317-390A6E562843}" name="缩写字母" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{C314FE14-B914-4DE1-B4B0-055B1B7AB960}" name="字母含义" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F0D29582-25BC-4B75-9DDD-BEABCA79AE89}" name="表4" displayName="表4" ref="D1:E4" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F0D29582-25BC-4B75-9DDD-BEABCA79AE89}" name="表4" displayName="表4" ref="D1:E4" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <tableColumns count="2">
-    <tableColumn id="3" xr3:uid="{98F7D5B4-744D-4C87-9D5D-D74095D6EAB0}" name="是否已完成" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{60B35FCA-AAFA-4136-8313-D6EBEAB47A72}" name="含义" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{98F7D5B4-744D-4C87-9D5D-D74095D6EAB0}" name="是否已完成" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{60B35FCA-AAFA-4136-8313-D6EBEAB47A72}" name="含义" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1384,8 +1344,8 @@
   <dimension ref="A1:W134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P19" sqref="P19"/>
+      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1480,14 +1440,14 @@
       </c>
       <c r="S2" s="9">
         <f>COUNTIF($P$3:$P$134,1)</f>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="T2" s="10">
         <f>ROUND(S2/R2,2)</f>
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>175</v>
       </c>
@@ -1520,7 +1480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>176</v>
       </c>
@@ -1553,7 +1513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>177</v>
       </c>
@@ -1586,7 +1546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>603</v>
       </c>
@@ -1619,7 +1579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>180</v>
       </c>
@@ -1654,7 +1614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>184</v>
       </c>
@@ -1687,7 +1647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>185</v>
       </c>
@@ -1720,7 +1680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>595</v>
       </c>
@@ -1753,7 +1713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>196</v>
       </c>
@@ -1788,7 +1748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>626</v>
       </c>
@@ -1821,7 +1781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>569</v>
       </c>
@@ -1854,7 +1814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>615</v>
       </c>
@@ -1887,7 +1847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>570</v>
       </c>
@@ -1949,7 +1909,7 @@
         <v>511</v>
       </c>
       <c r="P16" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
@@ -1981,7 +1941,7 @@
         <v>512</v>
       </c>
       <c r="P17" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
@@ -2013,7 +1973,7 @@
         <v>534</v>
       </c>
       <c r="P18" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
@@ -2049,7 +2009,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>608</v>
       </c>
@@ -2082,7 +2042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>610</v>
       </c>
@@ -2115,7 +2075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>180</v>
       </c>
@@ -2150,7 +2110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>181</v>
       </c>
@@ -2183,7 +2143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>182</v>
       </c>
@@ -2216,7 +2176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>183</v>
       </c>
@@ -2249,7 +2209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>196</v>
       </c>
@@ -2284,7 +2244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>197</v>
       </c>
@@ -2317,7 +2277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>262</v>
       </c>
@@ -2350,7 +2310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>571</v>
       </c>
@@ -2383,7 +2343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>577</v>
       </c>
@@ -2416,7 +2376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>578</v>
       </c>
@@ -2449,7 +2409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>580</v>
       </c>
@@ -2482,7 +2442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>584</v>
       </c>
@@ -2515,7 +2475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>585</v>
       </c>
@@ -2548,7 +2508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>586</v>
       </c>
@@ -2581,7 +2541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>596</v>
       </c>
@@ -2614,7 +2574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>601</v>
       </c>
@@ -2647,7 +2607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>602</v>
       </c>
@@ -2680,7 +2640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>607</v>
       </c>
@@ -2713,7 +2673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>612</v>
       </c>
@@ -2746,7 +2706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>613</v>
       </c>
@@ -2779,7 +2739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>614</v>
       </c>
@@ -2812,7 +2772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>618</v>
       </c>
@@ -2845,7 +2805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>619</v>
       </c>
@@ -2878,7 +2838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>620</v>
       </c>
@@ -2911,7 +2871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>627</v>
       </c>
@@ -2944,7 +2904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L47" s="5">
         <f t="shared" si="2"/>
         <v>626</v>
@@ -2963,7 +2923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L48" s="5">
         <f t="shared" si="2"/>
         <v>627</v>
@@ -2996,9 +2956,8 @@
       <c r="O49" s="5">
         <v>1045</v>
       </c>
-      <c r="P49" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="P49" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -3015,9 +2974,8 @@
       <c r="O50" s="5">
         <v>1050</v>
       </c>
-      <c r="P50" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="P50" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -3034,9 +2992,8 @@
       <c r="O51" s="5">
         <v>1068</v>
       </c>
-      <c r="P51" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="P51" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -3053,9 +3010,8 @@
       <c r="O52" s="5">
         <v>1069</v>
       </c>
-      <c r="P52" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="P52" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -4628,15 +4584,15 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:B46">
-    <cfRule type="expression" dxfId="10" priority="6">
+    <cfRule type="expression" dxfId="28" priority="7">
       <formula>IF(C3=-1,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="8">
+    <cfRule type="expression" dxfId="27" priority="9">
       <formula>IF(C3=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:K2">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4646,20 +4602,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E46">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="6" operator="greaterThan">
       <formula>1.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L134">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="25" priority="5">
       <formula>IF(L3=O3,TRUE,flase)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="1">
+      <formula>IF(P3=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4669,7 +4628,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
+++ b/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VScode-for-cicero\SQL-exercises\SQL-daily-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329EC8C2-3A74-4624-84CE-5A0D573B4AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5245D28-1087-42C5-9BBD-70BFAE57007C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1039,7 +1039,13 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD2FCCAB-AF25-4246-8F4F-2086D16544FB}" name="表2" displayName="表2" ref="L2:P134" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="L2:P134" xr:uid="{BD2FCCAB-AF25-4246-8F4F-2086D16544FB}"/>
+  <autoFilter ref="L2:P134" xr:uid="{BD2FCCAB-AF25-4246-8F4F-2086D16544FB}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="#N/A"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L3:P134">
     <sortCondition ref="O2:O134"/>
   </sortState>
@@ -1344,8 +1350,8 @@
   <dimension ref="A1:W134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O49" sqref="O49"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P57" sqref="P57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1440,14 +1446,14 @@
       </c>
       <c r="S2" s="9">
         <f>COUNTIF($P$3:$P$134,1)</f>
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="T2" s="10">
         <f>ROUND(S2/R2,2)</f>
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>175</v>
       </c>
@@ -1480,7 +1486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>176</v>
       </c>
@@ -1513,7 +1519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>177</v>
       </c>
@@ -1546,7 +1552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>603</v>
       </c>
@@ -1579,7 +1585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>180</v>
       </c>
@@ -1614,7 +1620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>184</v>
       </c>
@@ -1647,7 +1653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>185</v>
       </c>
@@ -1680,7 +1686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>595</v>
       </c>
@@ -1713,7 +1719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>196</v>
       </c>
@@ -1748,7 +1754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>626</v>
       </c>
@@ -1781,7 +1787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>569</v>
       </c>
@@ -1814,7 +1820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>615</v>
       </c>
@@ -1847,7 +1853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>570</v>
       </c>
@@ -1880,7 +1886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>597</v>
       </c>
@@ -1912,7 +1918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>574</v>
       </c>
@@ -1944,7 +1950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>178</v>
       </c>
@@ -2009,7 +2015,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>608</v>
       </c>
@@ -2042,7 +2048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>610</v>
       </c>
@@ -2075,7 +2081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>180</v>
       </c>
@@ -2110,7 +2116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>181</v>
       </c>
@@ -2143,7 +2149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>182</v>
       </c>
@@ -2176,7 +2182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>183</v>
       </c>
@@ -2209,7 +2215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>196</v>
       </c>
@@ -2244,7 +2250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>197</v>
       </c>
@@ -2277,7 +2283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>262</v>
       </c>
@@ -2310,7 +2316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>571</v>
       </c>
@@ -2343,7 +2349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>577</v>
       </c>
@@ -2376,7 +2382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>578</v>
       </c>
@@ -2409,7 +2415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>580</v>
       </c>
@@ -2442,7 +2448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>584</v>
       </c>
@@ -2475,7 +2481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>585</v>
       </c>
@@ -2508,7 +2514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>586</v>
       </c>
@@ -2541,7 +2547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>596</v>
       </c>
@@ -2574,7 +2580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>601</v>
       </c>
@@ -2607,7 +2613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>602</v>
       </c>
@@ -2640,7 +2646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>607</v>
       </c>
@@ -2673,7 +2679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>612</v>
       </c>
@@ -2706,7 +2712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>613</v>
       </c>
@@ -2739,7 +2745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>614</v>
       </c>
@@ -2772,7 +2778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>618</v>
       </c>
@@ -2805,7 +2811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>619</v>
       </c>
@@ -2838,7 +2844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>620</v>
       </c>
@@ -2871,7 +2877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>627</v>
       </c>
@@ -2904,7 +2910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L47" s="5">
         <f t="shared" si="2"/>
         <v>626</v>
@@ -2923,7 +2929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L48" s="5">
         <f t="shared" si="2"/>
         <v>627</v>
@@ -2942,7 +2948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L49" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -2960,7 +2966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L50" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -2978,7 +2984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L51" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -2996,7 +3002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L52" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -3028,9 +3034,8 @@
       <c r="O53" s="5">
         <v>1070</v>
       </c>
-      <c r="P53" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="P53" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -3047,9 +3052,8 @@
       <c r="O54" s="5">
         <v>1075</v>
       </c>
-      <c r="P54" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="P54" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -3066,9 +3070,8 @@
       <c r="O55" s="5">
         <v>1076</v>
       </c>
-      <c r="P55" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="P55" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -3085,9 +3088,8 @@
       <c r="O56" s="5">
         <v>1077</v>
       </c>
-      <c r="P56" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="P56" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">

--- a/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
+++ b/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VScode-for-cicero\SQL-exercises\SQL-daily-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5245D28-1087-42C5-9BBD-70BFAE57007C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7616A970-6819-4546-92A4-F892A40242AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1351,7 +1351,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P57" sqref="P57"/>
+      <selection pane="bottomLeft" activeCell="R65" sqref="R65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1446,11 +1446,11 @@
       </c>
       <c r="S2" s="9">
         <f>COUNTIF($P$3:$P$134,1)</f>
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="T2" s="10">
         <f>ROUND(S2/R2,2)</f>
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
@@ -1982,7 +1982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>579</v>
       </c>
@@ -2010,9 +2010,8 @@
       <c r="O19" s="5">
         <v>550</v>
       </c>
-      <c r="P19" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="P19" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
@@ -3020,7 +3019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L53" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -3038,7 +3037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L54" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -3056,7 +3055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L55" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -3074,7 +3073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L56" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -3092,7 +3091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L57" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -3106,12 +3105,11 @@
       <c r="O57" s="5">
         <v>1082</v>
       </c>
-      <c r="P57" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="58" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="P57" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L58" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -3125,12 +3123,11 @@
       <c r="O58" s="5">
         <v>1083</v>
       </c>
-      <c r="P58" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="59" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="P58" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L59" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -3144,9 +3141,8 @@
       <c r="O59" s="5">
         <v>1084</v>
       </c>
-      <c r="P59" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="P59" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">

--- a/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
+++ b/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VScode-for-cicero\SQL-exercises\SQL-daily-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7616A970-6819-4546-92A4-F892A40242AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFD924A-FE7B-40AF-AF1D-2005384515C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1351,7 +1351,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R65" sqref="R65"/>
+      <selection pane="bottomLeft" activeCell="Q63" sqref="Q63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1446,11 +1446,11 @@
       </c>
       <c r="S2" s="9">
         <f>COUNTIF($P$3:$P$134,1)</f>
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="T2" s="10">
         <f>ROUND(S2/R2,2)</f>
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
@@ -3145,7 +3145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L60" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -3159,12 +3159,11 @@
       <c r="O60" s="5">
         <v>1097</v>
       </c>
-      <c r="P60" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="61" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="P60" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L61" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -3178,9 +3177,8 @@
       <c r="O61" s="5">
         <v>1098</v>
       </c>
-      <c r="P61" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="P61" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -3197,9 +3195,8 @@
       <c r="O62" s="5">
         <v>1107</v>
       </c>
-      <c r="P62" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="P62" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -3216,9 +3213,8 @@
       <c r="O63" s="5">
         <v>1112</v>
       </c>
-      <c r="P63" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="P63" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -3235,9 +3231,8 @@
       <c r="O64" s="5">
         <v>1113</v>
       </c>
-      <c r="P64" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="P64" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">

--- a/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
+++ b/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VScode-for-cicero\SQL-exercises\SQL-daily-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFD924A-FE7B-40AF-AF1D-2005384515C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748D6266-DA86-44F8-BD04-48F986896898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1351,7 +1351,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q63" sqref="Q63"/>
+      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1446,11 +1446,11 @@
       </c>
       <c r="S2" s="9">
         <f>COUNTIF($P$3:$P$134,1)</f>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="T2" s="10">
         <f>ROUND(S2/R2,2)</f>
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
@@ -3181,7 +3181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L62" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -3199,7 +3199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L63" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -3217,7 +3217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L64" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -3235,7 +3235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L65" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -3249,12 +3249,11 @@
       <c r="O65" s="5">
         <v>1126</v>
       </c>
-      <c r="P65" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="66" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="P65" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L66" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -3268,9 +3267,8 @@
       <c r="O66" s="5">
         <v>1127</v>
       </c>
-      <c r="P66" s="5" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
+      <c r="P66" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">

--- a/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
+++ b/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VScode-for-cicero\SQL-exercises\SQL-daily-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748D6266-DA86-44F8-BD04-48F986896898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C175BD5-D60F-4254-92D7-BC04DF6C27F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1351,7 +1351,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
+      <selection pane="bottomLeft" activeCell="S71" sqref="S71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1446,11 +1446,11 @@
       </c>
       <c r="S2" s="9">
         <f>COUNTIF($P$3:$P$134,1)</f>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="T2" s="10">
         <f>ROUND(S2/R2,2)</f>
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
@@ -1482,7 +1482,7 @@
         <v>175</v>
       </c>
       <c r="P3" s="5">
-        <f t="shared" ref="P3:P66" si="1">IF(L3=O3,1,0)</f>
+        <f t="shared" ref="P3:P48" si="1">IF(L3=O3,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -3285,9 +3285,8 @@
       <c r="O67" s="5">
         <v>1132</v>
       </c>
-      <c r="P67" s="5" t="e">
-        <f t="shared" ref="P67:P130" si="4">IF(L67=O67,1,0)</f>
-        <v>#N/A</v>
+      <c r="P67" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -3304,9 +3303,8 @@
       <c r="O68" s="5">
         <v>1141</v>
       </c>
-      <c r="P68" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
+      <c r="P68" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -3323,9 +3321,8 @@
       <c r="O69" s="5">
         <v>1142</v>
       </c>
-      <c r="P69" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
+      <c r="P69" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -3342,9 +3339,8 @@
       <c r="O70" s="5">
         <v>1148</v>
       </c>
-      <c r="P70" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
+      <c r="P70" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -3361,9 +3357,8 @@
       <c r="O71" s="5">
         <v>1149</v>
       </c>
-      <c r="P71" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
+      <c r="P71" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -3381,7 +3376,7 @@
         <v>1158</v>
       </c>
       <c r="P72" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="P67:P130" si="4">IF(L72=O72,1,0)</f>
         <v>#N/A</v>
       </c>
     </row>

--- a/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
+++ b/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VScode-for-cicero\SQL-exercises\SQL-daily-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C175BD5-D60F-4254-92D7-BC04DF6C27F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A0FEED-1864-4685-9299-4131C8BD7115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="163">
   <si>
     <t>题目序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -122,15 +122,6 @@
   </si>
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>[Medium]</t>
-  </si>
-  <si>
-    <t>[Easy]</t>
-  </si>
-  <si>
-    <t>Times</t>
   </si>
   <si>
     <t xml:space="preserve">1308. Running Total for Different Genders </t>
@@ -1347,11 +1338,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W134"/>
+  <dimension ref="A1:T134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S71" sqref="S71"/>
+      <selection pane="bottomLeft" activeCell="R75" sqref="R75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1369,7 +1360,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="21.5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>10</v>
@@ -1383,7 +1374,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="R1" s="8" t="s">
         <v>10</v>
@@ -1426,19 +1417,19 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>21</v>
       </c>
       <c r="N2" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>163</v>
       </c>
       <c r="R2" s="9">
         <f>COUNTA(N2:N134)</f>
@@ -1446,11 +1437,11 @@
       </c>
       <c r="S2" s="9">
         <f>COUNTIF($P$3:$P$134,1)</f>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="T2" s="10">
         <f>ROUND(S2/R2,2)</f>
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
@@ -1473,10 +1464,10 @@
         <v>175</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O3" s="5">
         <v>175</v>
@@ -1506,10 +1497,10 @@
         <v>176</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O4" s="5">
         <v>176</v>
@@ -1539,10 +1530,10 @@
         <v>177</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O5" s="5">
         <v>177</v>
@@ -1572,10 +1563,10 @@
         <v>178</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O6" s="5">
         <v>178</v>
@@ -1607,10 +1598,10 @@
         <v>180</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O7" s="5">
         <v>180</v>
@@ -1640,10 +1631,10 @@
         <v>181</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O8" s="5">
         <v>181</v>
@@ -1673,10 +1664,10 @@
         <v>182</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O9" s="5">
         <v>182</v>
@@ -1706,10 +1697,10 @@
         <v>183</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O10" s="5">
         <v>183</v>
@@ -1741,10 +1732,10 @@
         <v>184</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O11" s="5">
         <v>184</v>
@@ -1774,10 +1765,10 @@
         <v>185</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O12" s="5">
         <v>185</v>
@@ -1807,10 +1798,10 @@
         <v>196</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O13" s="5">
         <v>196</v>
@@ -1840,10 +1831,10 @@
         <v>197</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O14" s="5">
         <v>197</v>
@@ -1873,10 +1864,10 @@
         <v>262</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O15" s="5">
         <v>262</v>
@@ -1906,10 +1897,10 @@
         <v>#N/A</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O16" s="5">
         <v>511</v>
@@ -1938,10 +1929,10 @@
         <v>#N/A</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O17" s="5">
         <v>512</v>
@@ -1970,10 +1961,10 @@
         <v>#N/A</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O18" s="5">
         <v>534</v>
@@ -2002,10 +1993,10 @@
         <v>#N/A</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O19" s="5">
         <v>550</v>
@@ -2034,10 +2025,10 @@
         <v>569</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O20" s="5">
         <v>569</v>
@@ -2067,10 +2058,10 @@
         <v>570</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O21" s="5">
         <v>570</v>
@@ -2102,10 +2093,10 @@
         <v>571</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O22" s="5">
         <v>571</v>
@@ -2135,10 +2126,10 @@
         <v>574</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O23" s="5">
         <v>574</v>
@@ -2168,10 +2159,10 @@
         <v>577</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O24" s="5">
         <v>577</v>
@@ -2201,10 +2192,10 @@
         <v>578</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O25" s="5">
         <v>578</v>
@@ -2236,10 +2227,10 @@
         <v>579</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O26" s="5">
         <v>579</v>
@@ -2269,10 +2260,10 @@
         <v>580</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O27" s="5">
         <v>580</v>
@@ -2302,10 +2293,10 @@
         <v>584</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="N28" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O28" s="5">
         <v>584</v>
@@ -2335,10 +2326,10 @@
         <v>585</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N29" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O29" s="5">
         <v>585</v>
@@ -2368,10 +2359,10 @@
         <v>586</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O30" s="5">
         <v>586</v>
@@ -2401,10 +2392,10 @@
         <v>595</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O31" s="5">
         <v>595</v>
@@ -2434,10 +2425,10 @@
         <v>596</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O32" s="5">
         <v>596</v>
@@ -2467,10 +2458,10 @@
         <v>597</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O33" s="5">
         <v>597</v>
@@ -2500,10 +2491,10 @@
         <v>601</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O34" s="5">
         <v>601</v>
@@ -2533,10 +2524,10 @@
         <v>602</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O35" s="5">
         <v>602</v>
@@ -2566,10 +2557,10 @@
         <v>603</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O36" s="5">
         <v>603</v>
@@ -2599,10 +2590,10 @@
         <v>607</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O37" s="5">
         <v>607</v>
@@ -2632,10 +2623,10 @@
         <v>608</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O38" s="5">
         <v>608</v>
@@ -2665,10 +2656,10 @@
         <v>610</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O39" s="5">
         <v>610</v>
@@ -2698,10 +2689,10 @@
         <v>612</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N40" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O40" s="5">
         <v>612</v>
@@ -2731,10 +2722,10 @@
         <v>613</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N41" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O41" s="5">
         <v>613</v>
@@ -2764,10 +2755,10 @@
         <v>614</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O42" s="5">
         <v>614</v>
@@ -2797,10 +2788,10 @@
         <v>615</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N43" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O43" s="5">
         <v>615</v>
@@ -2830,10 +2821,10 @@
         <v>618</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O44" s="5">
         <v>618</v>
@@ -2863,10 +2854,10 @@
         <v>619</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N45" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O45" s="5">
         <v>619</v>
@@ -2896,10 +2887,10 @@
         <v>620</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O46" s="5">
         <v>620</v>
@@ -2915,10 +2906,10 @@
         <v>626</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="N47" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O47" s="5">
         <v>626</v>
@@ -2934,10 +2925,10 @@
         <v>627</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O48" s="5">
         <v>627</v>
@@ -2953,10 +2944,10 @@
         <v>#N/A</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N49" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O49" s="5">
         <v>1045</v>
@@ -2971,10 +2962,10 @@
         <v>#N/A</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O50" s="5">
         <v>1050</v>
@@ -2989,10 +2980,10 @@
         <v>#N/A</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N51" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O51" s="5">
         <v>1068</v>
@@ -3007,10 +2998,10 @@
         <v>#N/A</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O52" s="5">
         <v>1069</v>
@@ -3025,10 +3016,10 @@
         <v>#N/A</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O53" s="5">
         <v>1070</v>
@@ -3043,10 +3034,10 @@
         <v>#N/A</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O54" s="5">
         <v>1075</v>
@@ -3061,10 +3052,10 @@
         <v>#N/A</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N55" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O55" s="5">
         <v>1076</v>
@@ -3079,10 +3070,10 @@
         <v>#N/A</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N56" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O56" s="5">
         <v>1077</v>
@@ -3097,10 +3088,10 @@
         <v>#N/A</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N57" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O57" s="5">
         <v>1082</v>
@@ -3115,10 +3106,10 @@
         <v>#N/A</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N58" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O58" s="5">
         <v>1083</v>
@@ -3133,10 +3124,10 @@
         <v>#N/A</v>
       </c>
       <c r="M59" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N59" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O59" s="5">
         <v>1084</v>
@@ -3151,10 +3142,10 @@
         <v>#N/A</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N60" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O60" s="5">
         <v>1097</v>
@@ -3169,10 +3160,10 @@
         <v>#N/A</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N61" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O61" s="5">
         <v>1098</v>
@@ -3187,10 +3178,10 @@
         <v>#N/A</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N62" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O62" s="5">
         <v>1107</v>
@@ -3205,10 +3196,10 @@
         <v>#N/A</v>
       </c>
       <c r="M63" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N63" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O63" s="5">
         <v>1112</v>
@@ -3223,10 +3214,10 @@
         <v>#N/A</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N64" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O64" s="5">
         <v>1113</v>
@@ -3241,10 +3232,10 @@
         <v>#N/A</v>
       </c>
       <c r="M65" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N65" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O65" s="5">
         <v>1126</v>
@@ -3259,10 +3250,10 @@
         <v>#N/A</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N66" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O66" s="5">
         <v>1127</v>
@@ -3271,16 +3262,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L67" s="5" t="e">
         <f t="shared" ref="L67:L98" si="3">VLOOKUP(O67,$A:$A,1,0)</f>
         <v>#N/A</v>
       </c>
       <c r="M67" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N67" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O67" s="5">
         <v>1132</v>
@@ -3289,16 +3280,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L68" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N68" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O68" s="5">
         <v>1141</v>
@@ -3307,16 +3298,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L69" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="M69" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N69" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O69" s="5">
         <v>1142</v>
@@ -3325,16 +3316,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L70" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N70" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O70" s="5">
         <v>1148</v>
@@ -3343,16 +3334,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L71" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="M71" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N71" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O71" s="5">
         <v>1149</v>
@@ -3367,17 +3358,16 @@
         <v>#N/A</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N72" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O72" s="5">
         <v>1158</v>
       </c>
-      <c r="P72" s="5" t="e">
-        <f t="shared" ref="P67:P130" si="4">IF(L72=O72,1,0)</f>
-        <v>#N/A</v>
+      <c r="P72" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -3386,17 +3376,16 @@
         <v>#N/A</v>
       </c>
       <c r="M73" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N73" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O73" s="5">
         <v>1159</v>
       </c>
-      <c r="P73" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
+      <c r="P73" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -3405,16 +3394,16 @@
         <v>#N/A</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N74" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O74" s="5">
         <v>1164</v>
       </c>
       <c r="P74" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="P72:P130" si="4">IF(L74=O74,1,0)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -3424,10 +3413,10 @@
         <v>#N/A</v>
       </c>
       <c r="M75" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N75" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O75" s="5">
         <v>1173</v>
@@ -3443,10 +3432,10 @@
         <v>#N/A</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N76" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O76" s="5">
         <v>1174</v>
@@ -3462,10 +3451,10 @@
         <v>#N/A</v>
       </c>
       <c r="M77" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N77" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O77" s="5">
         <v>1179</v>
@@ -3481,10 +3470,10 @@
         <v>#N/A</v>
       </c>
       <c r="M78" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N78" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O78" s="5">
         <v>1193</v>
@@ -3500,10 +3489,10 @@
         <v>#N/A</v>
       </c>
       <c r="M79" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N79" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O79" s="5">
         <v>1194</v>
@@ -3519,10 +3508,10 @@
         <v>#N/A</v>
       </c>
       <c r="M80" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="N80" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O80" s="5">
         <v>1204</v>
@@ -3538,10 +3527,10 @@
         <v>#N/A</v>
       </c>
       <c r="M81" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N81" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O81" s="5">
         <v>1205</v>
@@ -3557,10 +3546,10 @@
         <v>#N/A</v>
       </c>
       <c r="M82" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N82" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O82" s="5">
         <v>1211</v>
@@ -3576,10 +3565,10 @@
         <v>#N/A</v>
       </c>
       <c r="M83" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N83" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O83" s="5">
         <v>1212</v>
@@ -3595,10 +3584,10 @@
         <v>#N/A</v>
       </c>
       <c r="M84" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N84" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O84" s="5">
         <v>1225</v>
@@ -3614,10 +3603,10 @@
         <v>#N/A</v>
       </c>
       <c r="M85" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N85" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O85" s="5">
         <v>1241</v>
@@ -3633,10 +3622,10 @@
         <v>#N/A</v>
       </c>
       <c r="M86" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N86" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O86" s="5">
         <v>1251</v>
@@ -3652,10 +3641,10 @@
         <v>#N/A</v>
       </c>
       <c r="M87" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N87" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O87" s="5">
         <v>1264</v>
@@ -3671,10 +3660,10 @@
         <v>#N/A</v>
       </c>
       <c r="M88" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N88" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O88" s="5">
         <v>1270</v>
@@ -3690,10 +3679,10 @@
         <v>#N/A</v>
       </c>
       <c r="M89" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="N89" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O89" s="5">
         <v>1280</v>
@@ -3709,10 +3698,10 @@
         <v>#N/A</v>
       </c>
       <c r="M90" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N90" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O90" s="5">
         <v>1285</v>
@@ -3728,10 +3717,10 @@
         <v>#N/A</v>
       </c>
       <c r="M91" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N91" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O91" s="5">
         <v>1294</v>
@@ -3747,10 +3736,10 @@
         <v>#N/A</v>
       </c>
       <c r="M92" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N92" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O92" s="5">
         <v>1303</v>
@@ -3766,10 +3755,10 @@
         <v>#N/A</v>
       </c>
       <c r="M93" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N93" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O93" s="5">
         <v>1308</v>
@@ -3785,10 +3774,10 @@
         <v>#N/A</v>
       </c>
       <c r="M94" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="N94" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O94" s="5">
         <v>1321</v>
@@ -3804,10 +3793,10 @@
         <v>#N/A</v>
       </c>
       <c r="M95" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N95" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O95" s="5">
         <v>1322</v>
@@ -3823,10 +3812,10 @@
         <v>#N/A</v>
       </c>
       <c r="M96" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N96" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O96" s="5">
         <v>1327</v>
@@ -3836,16 +3825,16 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="12:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L97" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="M97" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N97" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O97" s="5">
         <v>1336</v>
@@ -3855,16 +3844,16 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="12:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L98" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
       <c r="M98" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N98" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O98" s="5">
         <v>1341</v>
@@ -3874,16 +3863,16 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="12:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L99" s="5" t="e">
         <f t="shared" ref="L99:L134" si="5">VLOOKUP(O99,$A:$A,1,0)</f>
         <v>#N/A</v>
       </c>
       <c r="M99" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N99" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O99" s="5">
         <v>1350</v>
@@ -3893,16 +3882,16 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="12:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L100" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M100" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N100" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O100" s="5">
         <v>1355</v>
@@ -3912,16 +3901,16 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="12:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L101" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M101" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N101" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O101" s="5">
         <v>1364</v>
@@ -3931,16 +3920,16 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="12:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L102" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M102" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N102" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O102" s="5">
         <v>1369</v>
@@ -3950,16 +3939,16 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="103" spans="12:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L103" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M103" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N103" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O103" s="5">
         <v>1378</v>
@@ -3969,16 +3958,16 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="104" spans="12:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L104" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M104" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N104" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O104" s="5">
         <v>1384</v>
@@ -3988,16 +3977,16 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="12:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L105" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M105" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N105" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O105" s="5">
         <v>1393</v>
@@ -4007,16 +3996,16 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="12:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L106" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M106" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N106" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O106" s="5">
         <v>1398</v>
@@ -4026,16 +4015,16 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="12:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L107" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M107" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N107" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O107" s="5">
         <v>1407</v>
@@ -4045,16 +4034,16 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="12:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L108" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M108" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N108" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O108" s="5">
         <v>1412</v>
@@ -4063,20 +4052,17 @@
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="V108" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="109" spans="12:22" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L109" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M109" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N109" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O109" s="5">
         <v>1421</v>
@@ -4086,16 +4072,16 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="12:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L110" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M110" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N110" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O110" s="5">
         <v>1435</v>
@@ -4105,16 +4091,16 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="12:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L111" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M111" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N111" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O111" s="5">
         <v>1440</v>
@@ -4124,16 +4110,16 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="12:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L112" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M112" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N112" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O112" s="5">
         <v>1445</v>
@@ -4143,16 +4129,16 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="12:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L113" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M113" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N113" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O113" s="5">
         <v>1454</v>
@@ -4162,16 +4148,16 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="114" spans="12:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L114" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M114" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="N114" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O114" s="5">
         <v>1459</v>
@@ -4181,16 +4167,16 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="12:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L115" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M115" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N115" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O115" s="5">
         <v>1468</v>
@@ -4199,23 +4185,17 @@
         <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="V115" t="s">
-        <v>24</v>
-      </c>
-      <c r="W115" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="116" spans="12:23" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L116" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M116" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N116" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O116" s="5">
         <v>1479</v>
@@ -4225,16 +4205,16 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="12:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L117" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M117" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N117" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O117" s="5">
         <v>1484</v>
@@ -4244,16 +4224,16 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="118" spans="12:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L118" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M118" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N118" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O118" s="5">
         <v>1495</v>
@@ -4263,16 +4243,16 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="12:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L119" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M119" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N119" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O119" s="5">
         <v>1501</v>
@@ -4282,16 +4262,16 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="120" spans="12:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L120" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M120" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N120" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O120" s="5">
         <v>1511</v>
@@ -4301,16 +4281,16 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="121" spans="12:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L121" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M121" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N121" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O121" s="5">
         <v>1517</v>
@@ -4320,16 +4300,16 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="122" spans="12:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L122" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M122" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N122" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O122" s="5">
         <v>1527</v>
@@ -4339,16 +4319,16 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="12:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L123" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M123" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N123" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O123" s="5">
         <v>1532</v>
@@ -4358,16 +4338,16 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="124" spans="12:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L124" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M124" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N124" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O124" s="5">
         <v>1543</v>
@@ -4377,16 +4357,16 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="12:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L125" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M125" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="N125" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O125" s="5">
         <v>1549</v>
@@ -4396,16 +4376,16 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="126" spans="12:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L126" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M126" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N126" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O126" s="5">
         <v>1555</v>
@@ -4415,16 +4395,16 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="127" spans="12:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L127" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M127" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N127" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O127" s="5">
         <v>1565</v>
@@ -4434,16 +4414,16 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="128" spans="12:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L128" s="5" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="M128" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N128" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O128" s="5">
         <v>1571</v>
@@ -4459,10 +4439,10 @@
         <v>#N/A</v>
       </c>
       <c r="M129" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N129" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O129" s="5">
         <v>1581</v>
@@ -4478,10 +4458,10 @@
         <v>#N/A</v>
       </c>
       <c r="M130" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N130" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O130" s="5">
         <v>1587</v>
@@ -4497,10 +4477,10 @@
         <v>#N/A</v>
       </c>
       <c r="M131" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N131" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O131" s="5">
         <v>1596</v>
@@ -4516,10 +4496,10 @@
         <v>#N/A</v>
       </c>
       <c r="M132" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N132" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O132" s="5">
         <v>1607</v>
@@ -4535,10 +4515,10 @@
         <v>#N/A</v>
       </c>
       <c r="M133" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N133" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O133" s="5">
         <v>1613</v>
@@ -4554,10 +4534,10 @@
         <v>#N/A</v>
       </c>
       <c r="M134" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="N134" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O134" s="5">
         <v>1623</v>

--- a/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
+++ b/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VScode-for-cicero\SQL-exercises\SQL-daily-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A0FEED-1864-4685-9299-4131C8BD7115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D78CAC5-1661-4FD0-A842-B728E10FBB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1342,7 +1342,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R75" sqref="R75"/>
+      <selection pane="bottomLeft" activeCell="P74" sqref="P74:P77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1437,11 +1437,11 @@
       </c>
       <c r="S2" s="9">
         <f>COUNTIF($P$3:$P$134,1)</f>
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="T2" s="10">
         <f>ROUND(S2/R2,2)</f>
-        <v>0.53</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
@@ -3352,7 +3352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L72" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3370,7 +3370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L73" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3402,9 +3402,8 @@
       <c r="O74" s="5">
         <v>1164</v>
       </c>
-      <c r="P74" s="5" t="e">
-        <f t="shared" ref="P72:P130" si="4">IF(L74=O74,1,0)</f>
-        <v>#N/A</v>
+      <c r="P74" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -3421,9 +3420,8 @@
       <c r="O75" s="5">
         <v>1173</v>
       </c>
-      <c r="P75" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
+      <c r="P75" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -3440,9 +3438,8 @@
       <c r="O76" s="5">
         <v>1174</v>
       </c>
-      <c r="P76" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
+      <c r="P76" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -3459,9 +3456,8 @@
       <c r="O77" s="5">
         <v>1179</v>
       </c>
-      <c r="P77" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
+      <c r="P77" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -3479,7 +3475,7 @@
         <v>1193</v>
       </c>
       <c r="P78" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="P74:P130" si="4">IF(L78=O78,1,0)</f>
         <v>#N/A</v>
       </c>
     </row>

--- a/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
+++ b/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VScode-for-cicero\SQL-exercises\SQL-daily-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D78CAC5-1661-4FD0-A842-B728E10FBB4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7237BA6B-7A81-4F3A-9D23-0FD1E4F10946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1342,7 +1342,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P74" sqref="P74:P77"/>
+      <selection pane="bottomLeft" activeCell="Q79" sqref="Q79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1437,11 +1437,11 @@
       </c>
       <c r="S2" s="9">
         <f>COUNTIF($P$3:$P$134,1)</f>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T2" s="10">
         <f>ROUND(S2/R2,2)</f>
-        <v>0.56000000000000005</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
@@ -3388,7 +3388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L74" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3406,7 +3406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L75" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3424,7 +3424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L76" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3442,7 +3442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L77" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3474,9 +3474,8 @@
       <c r="O78" s="5">
         <v>1193</v>
       </c>
-      <c r="P78" s="5" t="e">
-        <f t="shared" ref="P74:P130" si="4">IF(L78=O78,1,0)</f>
-        <v>#N/A</v>
+      <c r="P78" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -3493,9 +3492,8 @@
       <c r="O79" s="5">
         <v>1194</v>
       </c>
-      <c r="P79" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
+      <c r="P79" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -3513,7 +3511,7 @@
         <v>1204</v>
       </c>
       <c r="P80" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="P78:P130" si="4">IF(L80=O80,1,0)</f>
         <v>#N/A</v>
       </c>
     </row>

--- a/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
+++ b/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VScode-for-cicero\SQL-exercises\SQL-daily-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7237BA6B-7A81-4F3A-9D23-0FD1E4F10946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BF94FF-5676-4349-A1D1-AC7AE49F5D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1342,7 +1342,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q79" sqref="Q79"/>
+      <selection pane="bottomLeft" activeCell="P84" sqref="P84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1437,11 +1437,11 @@
       </c>
       <c r="S2" s="9">
         <f>COUNTIF($P$3:$P$134,1)</f>
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="T2" s="10">
         <f>ROUND(S2/R2,2)</f>
-        <v>0.57999999999999996</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
@@ -3460,7 +3460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L78" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3478,7 +3478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L79" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3510,9 +3510,8 @@
       <c r="O80" s="5">
         <v>1204</v>
       </c>
-      <c r="P80" s="5" t="e">
-        <f t="shared" ref="P78:P130" si="4">IF(L80=O80,1,0)</f>
-        <v>#N/A</v>
+      <c r="P80" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -3529,9 +3528,8 @@
       <c r="O81" s="5">
         <v>1205</v>
       </c>
-      <c r="P81" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
+      <c r="P81" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -3548,9 +3546,8 @@
       <c r="O82" s="5">
         <v>1211</v>
       </c>
-      <c r="P82" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
+      <c r="P82" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -3567,9 +3564,8 @@
       <c r="O83" s="5">
         <v>1212</v>
       </c>
-      <c r="P83" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
+      <c r="P83" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -3587,7 +3583,7 @@
         <v>1225</v>
       </c>
       <c r="P84" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="P80:P130" si="4">IF(L84=O84,1,0)</f>
         <v>#N/A</v>
       </c>
     </row>

--- a/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
+++ b/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VScode-for-cicero\SQL-exercises\SQL-daily-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BF94FF-5676-4349-A1D1-AC7AE49F5D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192E94F1-C0CC-4489-99CB-360CA8B92A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="164">
   <si>
     <t>题目序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -550,6 +550,10 @@
   </si>
   <si>
     <t>数据来源：https://www.1point3acres.com/bbs/thread-474445-1-1.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>undone</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -557,7 +561,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -600,6 +604,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -640,7 +660,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -672,6 +692,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1338,11 +1372,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T134"/>
+  <dimension ref="A1:U134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P84" sqref="P84"/>
+      <pane ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T101" sqref="T101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1356,9 +1390,10 @@
     <col min="14" max="14" width="15.6640625" style="5" customWidth="1"/>
     <col min="15" max="15" width="8.6640625" style="5"/>
     <col min="16" max="16" width="12.6640625" style="5" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="21.5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>162</v>
       </c>
@@ -1383,10 +1418,13 @@
         <v>11</v>
       </c>
       <c r="T1" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="U1" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1437,14 +1475,18 @@
       </c>
       <c r="S2" s="9">
         <f>COUNTIF($P$3:$P$134,1)</f>
-        <v>81</v>
-      </c>
-      <c r="T2" s="10">
+        <v>93</v>
+      </c>
+      <c r="T2" s="9">
+        <f>R2-S2</f>
+        <v>40</v>
+      </c>
+      <c r="U2" s="10">
         <f>ROUND(S2/R2,2)</f>
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>175</v>
       </c>
@@ -1477,7 +1519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>176</v>
       </c>
@@ -1510,7 +1552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>177</v>
       </c>
@@ -1543,7 +1585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>603</v>
       </c>
@@ -1576,7 +1618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>180</v>
       </c>
@@ -1611,7 +1653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>184</v>
       </c>
@@ -1644,7 +1686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>185</v>
       </c>
@@ -1677,7 +1719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>595</v>
       </c>
@@ -1710,7 +1752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>196</v>
       </c>
@@ -1745,7 +1787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>626</v>
       </c>
@@ -1778,7 +1820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>569</v>
       </c>
@@ -1811,7 +1853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>615</v>
       </c>
@@ -1844,7 +1886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>570</v>
       </c>
@@ -1877,7 +1919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>597</v>
       </c>
@@ -3496,7 +3538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L80" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3514,7 +3556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L81" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3532,7 +3574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L82" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3550,7 +3592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L83" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3568,175 +3610,166 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L84" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="M84" s="6" t="s">
+      <c r="M84" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="N84" s="7" t="s">
+      <c r="N84" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="O84" s="5">
+      <c r="O84" s="14">
         <v>1225</v>
       </c>
-      <c r="P84" s="5" t="e">
-        <f t="shared" ref="P80:P130" si="4">IF(L84=O84,1,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="85" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="P84" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L85" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="M85" s="6" t="s">
+      <c r="M85" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="N85" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="O85" s="5">
+      <c r="N85" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="O85" s="14">
         <v>1241</v>
       </c>
-      <c r="P85" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="86" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="P85" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L86" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="M86" s="6" t="s">
+      <c r="M86" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="N86" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="O86" s="5">
+      <c r="N86" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="O86" s="14">
         <v>1251</v>
       </c>
-      <c r="P86" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="87" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="P86" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L87" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="M87" s="6" t="s">
+      <c r="M87" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="N87" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="O87" s="5">
+      <c r="N87" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="O87" s="14">
         <v>1264</v>
       </c>
-      <c r="P87" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="88" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="P87" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L88" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="M88" s="6" t="s">
+      <c r="M88" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="N88" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="O88" s="5">
+      <c r="N88" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="O88" s="14">
         <v>1270</v>
       </c>
-      <c r="P88" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="89" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="P88" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L89" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="M89" s="6" t="s">
+      <c r="M89" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="N89" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="O89" s="5">
+      <c r="N89" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="O89" s="17">
         <v>1280</v>
       </c>
-      <c r="P89" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="90" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="P89" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L90" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="M90" s="6" t="s">
+      <c r="M90" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="N90" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="O90" s="5">
+      <c r="N90" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="O90" s="14">
         <v>1285</v>
       </c>
-      <c r="P90" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="91" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="P90" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L91" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="M91" s="6" t="s">
+      <c r="M91" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="N91" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="O91" s="5">
+      <c r="N91" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="O91" s="14">
         <v>1294</v>
       </c>
-      <c r="P91" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="92" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="P91" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L92" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="M92" s="6" t="s">
+      <c r="M92" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="N92" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="O92" s="5">
+      <c r="N92" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="O92" s="14">
         <v>1303</v>
       </c>
-      <c r="P92" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
+      <c r="P92" s="14">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -3753,9 +3786,8 @@
       <c r="O93" s="5">
         <v>1308</v>
       </c>
-      <c r="P93" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
+      <c r="P93" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -3772,9 +3804,8 @@
       <c r="O94" s="5">
         <v>1321</v>
       </c>
-      <c r="P94" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
+      <c r="P94" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -3791,9 +3822,8 @@
       <c r="O95" s="5">
         <v>1322</v>
       </c>
-      <c r="P95" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
+      <c r="P95" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -3811,7 +3841,7 @@
         <v>1327</v>
       </c>
       <c r="P96" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="P93:P130" si="4">IF(L96=O96,1,0)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -4563,17 +4593,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L134">
-    <cfRule type="expression" dxfId="25" priority="5">
+    <cfRule type="expression" dxfId="25" priority="1">
+      <formula>IF(P3=1,TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="5">
       <formula>IF(L3=O3,TRUE,flase)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="1">
-      <formula>IF(P3=1,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
     <cfRule type="duplicateValues" dxfId="23" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2">
+  <conditionalFormatting sqref="U2">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>

--- a/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
+++ b/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VScode-for-cicero\SQL-exercises\SQL-daily-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192E94F1-C0CC-4489-99CB-360CA8B92A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89C017F-0676-4556-A2DA-412B696DB06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1375,8 +1375,8 @@
   <dimension ref="A1:U134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T101" sqref="T101"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q98" sqref="Q98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1475,15 +1475,15 @@
       </c>
       <c r="S2" s="9">
         <f>COUNTIF($P$3:$P$134,1)</f>
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="T2" s="9">
         <f>R2-S2</f>
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="U2" s="10">
         <f>ROUND(S2/R2,2)</f>
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L93" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3790,7 +3790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L94" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3808,7 +3808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L95" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3840,9 +3840,8 @@
       <c r="O96" s="5">
         <v>1327</v>
       </c>
-      <c r="P96" s="5" t="e">
-        <f t="shared" ref="P93:P130" si="4">IF(L96=O96,1,0)</f>
-        <v>#N/A</v>
+      <c r="P96" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -3859,9 +3858,8 @@
       <c r="O97" s="5">
         <v>1336</v>
       </c>
-      <c r="P97" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
+      <c r="P97" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -3878,14 +3876,13 @@
       <c r="O98" s="5">
         <v>1341</v>
       </c>
-      <c r="P98" s="5" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
+      <c r="P98" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L99" s="5" t="e">
-        <f t="shared" ref="L99:L134" si="5">VLOOKUP(O99,$A:$A,1,0)</f>
+        <f t="shared" ref="L99:L134" si="4">VLOOKUP(O99,$A:$A,1,0)</f>
         <v>#N/A</v>
       </c>
       <c r="M99" s="6" t="s">
@@ -3898,13 +3895,13 @@
         <v>1350</v>
       </c>
       <c r="P99" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="P96:P130" si="5">IF(L99=O99,1,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="100" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L100" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="M100" s="6" t="s">
@@ -3917,13 +3914,13 @@
         <v>1355</v>
       </c>
       <c r="P100" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="101" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L101" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="M101" s="6" t="s">
@@ -3936,13 +3933,13 @@
         <v>1364</v>
       </c>
       <c r="P101" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="102" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L102" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="M102" s="6" t="s">
@@ -3955,13 +3952,13 @@
         <v>1369</v>
       </c>
       <c r="P102" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="103" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L103" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="M103" s="6" t="s">
@@ -3974,13 +3971,13 @@
         <v>1378</v>
       </c>
       <c r="P103" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="104" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L104" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="M104" s="6" t="s">
@@ -3993,13 +3990,13 @@
         <v>1384</v>
       </c>
       <c r="P104" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="105" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L105" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="M105" s="6" t="s">
@@ -4012,13 +4009,13 @@
         <v>1393</v>
       </c>
       <c r="P105" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="106" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L106" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="M106" s="6" t="s">
@@ -4031,13 +4028,13 @@
         <v>1398</v>
       </c>
       <c r="P106" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="107" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L107" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="M107" s="6" t="s">
@@ -4050,13 +4047,13 @@
         <v>1407</v>
       </c>
       <c r="P107" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="108" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L108" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="M108" s="6" t="s">
@@ -4069,13 +4066,13 @@
         <v>1412</v>
       </c>
       <c r="P108" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="109" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L109" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="M109" s="6" t="s">
@@ -4088,13 +4085,13 @@
         <v>1421</v>
       </c>
       <c r="P109" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="110" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L110" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="M110" s="6" t="s">
@@ -4107,13 +4104,13 @@
         <v>1435</v>
       </c>
       <c r="P110" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="111" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L111" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="M111" s="6" t="s">
@@ -4126,13 +4123,13 @@
         <v>1440</v>
       </c>
       <c r="P111" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="112" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L112" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="M112" s="6" t="s">
@@ -4145,13 +4142,13 @@
         <v>1445</v>
       </c>
       <c r="P112" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="113" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L113" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="M113" s="6" t="s">
@@ -4164,13 +4161,13 @@
         <v>1454</v>
       </c>
       <c r="P113" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="114" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L114" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="M114" s="6" t="s">
@@ -4183,13 +4180,13 @@
         <v>1459</v>
       </c>
       <c r="P114" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="115" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L115" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="M115" s="6" t="s">
@@ -4202,13 +4199,13 @@
         <v>1468</v>
       </c>
       <c r="P115" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="116" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L116" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="M116" s="6" t="s">
@@ -4221,13 +4218,13 @@
         <v>1479</v>
       </c>
       <c r="P116" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="117" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L117" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="M117" s="6" t="s">
@@ -4240,13 +4237,13 @@
         <v>1484</v>
       </c>
       <c r="P117" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="118" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L118" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="M118" s="6" t="s">
@@ -4259,13 +4256,13 @@
         <v>1495</v>
       </c>
       <c r="P118" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="119" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L119" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="M119" s="6" t="s">
@@ -4278,13 +4275,13 @@
         <v>1501</v>
       </c>
       <c r="P119" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="120" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L120" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="M120" s="6" t="s">
@@ -4297,13 +4294,13 @@
         <v>1511</v>
       </c>
       <c r="P120" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="121" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L121" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="M121" s="6" t="s">
@@ -4316,13 +4313,13 @@
         <v>1517</v>
       </c>
       <c r="P121" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="122" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L122" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="M122" s="6" t="s">
@@ -4335,13 +4332,13 @@
         <v>1527</v>
       </c>
       <c r="P122" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="123" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L123" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="M123" s="6" t="s">
@@ -4354,13 +4351,13 @@
         <v>1532</v>
       </c>
       <c r="P123" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="124" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L124" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="M124" s="6" t="s">
@@ -4373,13 +4370,13 @@
         <v>1543</v>
       </c>
       <c r="P124" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="125" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L125" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="M125" s="6" t="s">
@@ -4392,13 +4389,13 @@
         <v>1549</v>
       </c>
       <c r="P125" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="126" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L126" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="M126" s="6" t="s">
@@ -4411,13 +4408,13 @@
         <v>1555</v>
       </c>
       <c r="P126" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="127" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L127" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="M127" s="6" t="s">
@@ -4430,13 +4427,13 @@
         <v>1565</v>
       </c>
       <c r="P127" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="128" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L128" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="M128" s="6" t="s">
@@ -4449,13 +4446,13 @@
         <v>1571</v>
       </c>
       <c r="P128" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="129" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L129" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="M129" s="6" t="s">
@@ -4468,13 +4465,13 @@
         <v>1581</v>
       </c>
       <c r="P129" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="130" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L130" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="M130" s="6" t="s">
@@ -4487,13 +4484,13 @@
         <v>1587</v>
       </c>
       <c r="P130" s="5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
     </row>
     <row r="131" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L131" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="M131" s="6" t="s">
@@ -4512,7 +4509,7 @@
     </row>
     <row r="132" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L132" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="M132" s="6" t="s">
@@ -4531,7 +4528,7 @@
     </row>
     <row r="133" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L133" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="M133" s="6" t="s">
@@ -4550,7 +4547,7 @@
     </row>
     <row r="134" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L134" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
       <c r="M134" s="6" t="s">

--- a/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
+++ b/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VScode-for-cicero\SQL-exercises\SQL-daily-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89C017F-0676-4556-A2DA-412B696DB06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C0A77F-80CF-4659-B350-4CBF093EA428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1376,7 +1376,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q98" sqref="Q98"/>
+      <selection pane="bottomLeft" activeCell="R104" sqref="R104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1475,15 +1475,15 @@
       </c>
       <c r="S2" s="9">
         <f>COUNTIF($P$3:$P$134,1)</f>
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="T2" s="9">
         <f>R2-S2</f>
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="U2" s="10">
         <f>ROUND(S2/R2,2)</f>
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
@@ -3826,7 +3826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L96" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3844,7 +3844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L97" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3862,7 +3862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L98" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3894,9 +3894,8 @@
       <c r="O99" s="5">
         <v>1350</v>
       </c>
-      <c r="P99" s="5" t="e">
-        <f t="shared" ref="P96:P130" si="5">IF(L99=O99,1,0)</f>
-        <v>#N/A</v>
+      <c r="P99" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -3913,9 +3912,8 @@
       <c r="O100" s="5">
         <v>1355</v>
       </c>
-      <c r="P100" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+      <c r="P100" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -3932,9 +3930,8 @@
       <c r="O101" s="5">
         <v>1364</v>
       </c>
-      <c r="P101" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+      <c r="P101" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -3952,7 +3949,7 @@
         <v>1369</v>
       </c>
       <c r="P102" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="P99:P130" si="5">IF(L102=O102,1,0)</f>
         <v>#N/A</v>
       </c>
     </row>

--- a/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
+++ b/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VScode-for-cicero\SQL-exercises\SQL-daily-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C0A77F-80CF-4659-B350-4CBF093EA428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7531C657-EB65-4F0D-9CDC-A4E6D4260344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1376,7 +1376,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R104" sqref="R104"/>
+      <selection pane="bottomLeft" activeCell="P108" sqref="P108:P110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1475,15 +1475,15 @@
       </c>
       <c r="S2" s="9">
         <f>COUNTIF($P$3:$P$134,1)</f>
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="T2" s="9">
         <f>R2-S2</f>
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="U2" s="10">
         <f>ROUND(S2/R2,2)</f>
-        <v>0.74</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
@@ -3880,7 +3880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L99" s="5" t="e">
         <f t="shared" ref="L99:L134" si="4">VLOOKUP(O99,$A:$A,1,0)</f>
         <v>#N/A</v>
@@ -3898,7 +3898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L100" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -3916,7 +3916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L101" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L102" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -3948,12 +3948,11 @@
       <c r="O102" s="5">
         <v>1369</v>
       </c>
-      <c r="P102" s="5" t="e">
-        <f t="shared" ref="P99:P130" si="5">IF(L102=O102,1,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="103" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="P102" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L103" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -3967,12 +3966,11 @@
       <c r="O103" s="5">
         <v>1378</v>
       </c>
-      <c r="P103" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="104" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="P103" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L104" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -3986,12 +3984,11 @@
       <c r="O104" s="5">
         <v>1384</v>
       </c>
-      <c r="P104" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="105" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="P104" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L105" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -4005,12 +4002,11 @@
       <c r="O105" s="5">
         <v>1393</v>
       </c>
-      <c r="P105" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="106" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="P105" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L106" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -4024,12 +4020,11 @@
       <c r="O106" s="5">
         <v>1398</v>
       </c>
-      <c r="P106" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="107" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="P106" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L107" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -4043,12 +4038,11 @@
       <c r="O107" s="5">
         <v>1407</v>
       </c>
-      <c r="P107" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="108" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="P107" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L108" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -4062,12 +4056,11 @@
       <c r="O108" s="5">
         <v>1412</v>
       </c>
-      <c r="P108" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="109" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="P108" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L109" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -4081,12 +4074,11 @@
       <c r="O109" s="5">
         <v>1421</v>
       </c>
-      <c r="P109" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="110" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="P109" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="L110" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -4100,9 +4092,8 @@
       <c r="O110" s="5">
         <v>1435</v>
       </c>
-      <c r="P110" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+      <c r="P110" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -4120,7 +4111,7 @@
         <v>1440</v>
       </c>
       <c r="P111" s="5" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="P102:P130" si="5">IF(L111=O111,1,0)</f>
         <v>#N/A</v>
       </c>
     </row>

--- a/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
+++ b/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VScode-for-cicero\SQL-exercises\SQL-daily-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7531C657-EB65-4F0D-9CDC-A4E6D4260344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1286F4-555E-4C7A-BA88-D8FB66D20E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1064,13 +1064,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD2FCCAB-AF25-4246-8F4F-2086D16544FB}" name="表2" displayName="表2" ref="L2:P134" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="L2:P134" xr:uid="{BD2FCCAB-AF25-4246-8F4F-2086D16544FB}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="#N/A"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="L2:P134" xr:uid="{BD2FCCAB-AF25-4246-8F4F-2086D16544FB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L3:P134">
     <sortCondition ref="O2:O134"/>
   </sortState>
@@ -1375,8 +1369,8 @@
   <dimension ref="A1:U134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P108" sqref="P108:P110"/>
+      <pane ySplit="2" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S132" sqref="S132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1470,23 +1464,23 @@
         <v>160</v>
       </c>
       <c r="R2" s="9">
-        <f>COUNTA(N2:N134)</f>
-        <v>133</v>
+        <f>COUNTA(N3:N134)</f>
+        <v>132</v>
       </c>
       <c r="S2" s="9">
         <f>COUNTIF($P$3:$P$134,1)</f>
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="T2" s="9">
         <f>R2-S2</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="U2" s="10">
         <f>ROUND(S2/R2,2)</f>
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>175</v>
       </c>
@@ -1519,7 +1513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>176</v>
       </c>
@@ -1552,7 +1546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>177</v>
       </c>
@@ -1585,7 +1579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>603</v>
       </c>
@@ -1618,7 +1612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>180</v>
       </c>
@@ -1653,7 +1647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>184</v>
       </c>
@@ -1686,7 +1680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>185</v>
       </c>
@@ -1719,7 +1713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>595</v>
       </c>
@@ -1752,7 +1746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>196</v>
       </c>
@@ -1787,7 +1781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>626</v>
       </c>
@@ -1820,7 +1814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>569</v>
       </c>
@@ -1853,7 +1847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>615</v>
       </c>
@@ -1886,7 +1880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>570</v>
       </c>
@@ -1919,7 +1913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>597</v>
       </c>
@@ -1951,7 +1945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>574</v>
       </c>
@@ -1983,7 +1977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>178</v>
       </c>
@@ -2015,7 +2009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>579</v>
       </c>
@@ -2047,7 +2041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>608</v>
       </c>
@@ -2080,7 +2074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>610</v>
       </c>
@@ -2113,7 +2107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>180</v>
       </c>
@@ -2148,7 +2142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>181</v>
       </c>
@@ -2181,7 +2175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>182</v>
       </c>
@@ -2214,7 +2208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>183</v>
       </c>
@@ -2247,7 +2241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>196</v>
       </c>
@@ -2282,7 +2276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>197</v>
       </c>
@@ -2315,7 +2309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>262</v>
       </c>
@@ -2348,7 +2342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>571</v>
       </c>
@@ -2381,7 +2375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>577</v>
       </c>
@@ -2414,7 +2408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>578</v>
       </c>
@@ -2447,7 +2441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>580</v>
       </c>
@@ -2480,7 +2474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>584</v>
       </c>
@@ -2513,7 +2507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>585</v>
       </c>
@@ -2546,7 +2540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>586</v>
       </c>
@@ -2579,7 +2573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>596</v>
       </c>
@@ -2612,7 +2606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>601</v>
       </c>
@@ -2645,7 +2639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>602</v>
       </c>
@@ -2678,7 +2672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>607</v>
       </c>
@@ -2711,7 +2705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>612</v>
       </c>
@@ -2744,7 +2738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>613</v>
       </c>
@@ -2777,7 +2771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>614</v>
       </c>
@@ -2810,7 +2804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>618</v>
       </c>
@@ -2843,7 +2837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>619</v>
       </c>
@@ -2876,7 +2870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>620</v>
       </c>
@@ -2909,7 +2903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>627</v>
       </c>
@@ -2942,7 +2936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L47" s="5">
         <f t="shared" si="2"/>
         <v>626</v>
@@ -2961,7 +2955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L48" s="5">
         <f t="shared" si="2"/>
         <v>627</v>
@@ -2980,7 +2974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L49" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -2998,7 +2992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L50" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -3016,7 +3010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L51" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -3034,7 +3028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L52" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -3052,7 +3046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L53" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -3070,7 +3064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L54" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -3088,7 +3082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L55" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -3106,7 +3100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L56" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -3124,7 +3118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L57" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -3142,7 +3136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L58" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -3160,7 +3154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L59" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -3178,7 +3172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L60" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -3196,7 +3190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L61" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -3214,7 +3208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L62" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -3232,7 +3226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L63" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -3250,7 +3244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L64" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -3268,7 +3262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L65" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -3286,7 +3280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L66" s="5" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
@@ -3304,7 +3298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L67" s="5" t="e">
         <f t="shared" ref="L67:L98" si="3">VLOOKUP(O67,$A:$A,1,0)</f>
         <v>#N/A</v>
@@ -3322,7 +3316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L68" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3340,7 +3334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L69" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3358,7 +3352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L70" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3376,7 +3370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L71" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3394,7 +3388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L72" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3412,7 +3406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L73" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3430,7 +3424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L74" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3448,7 +3442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L75" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3466,7 +3460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L76" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3484,7 +3478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L77" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3502,7 +3496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L78" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3520,7 +3514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L79" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3538,7 +3532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L80" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3556,7 +3550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L81" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3574,7 +3568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L82" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3592,7 +3586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L83" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3610,7 +3604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L84" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3628,7 +3622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L85" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3646,7 +3640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L86" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3664,7 +3658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L87" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3682,7 +3676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L88" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3700,7 +3694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L89" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3718,7 +3712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L90" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3736,7 +3730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L91" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3754,7 +3748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L92" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3772,7 +3766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L93" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3790,7 +3784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L94" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3808,7 +3802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L95" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3826,7 +3820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L96" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3844,7 +3838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L97" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3862,7 +3856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L98" s="5" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
@@ -3880,7 +3874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L99" s="5" t="e">
         <f t="shared" ref="L99:L134" si="4">VLOOKUP(O99,$A:$A,1,0)</f>
         <v>#N/A</v>
@@ -3898,7 +3892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L100" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -3916,7 +3910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L101" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -3934,7 +3928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L102" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -3952,7 +3946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L103" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -3970,7 +3964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L104" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -3988,7 +3982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L105" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -4006,7 +4000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L106" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -4024,7 +4018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L107" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -4042,7 +4036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L108" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -4060,7 +4054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L109" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -4078,7 +4072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="12:16" ht="15.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="L110" s="5" t="e">
         <f t="shared" si="4"/>
         <v>#N/A</v>
@@ -4110,9 +4104,8 @@
       <c r="O111" s="5">
         <v>1440</v>
       </c>
-      <c r="P111" s="5" t="e">
-        <f t="shared" ref="P102:P130" si="5">IF(L111=O111,1,0)</f>
-        <v>#N/A</v>
+      <c r="P111" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -4129,9 +4122,8 @@
       <c r="O112" s="5">
         <v>1445</v>
       </c>
-      <c r="P112" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+      <c r="P112" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -4148,9 +4140,8 @@
       <c r="O113" s="5">
         <v>1454</v>
       </c>
-      <c r="P113" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+      <c r="P113" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -4167,9 +4158,8 @@
       <c r="O114" s="5">
         <v>1459</v>
       </c>
-      <c r="P114" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+      <c r="P114" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -4186,9 +4176,8 @@
       <c r="O115" s="5">
         <v>1468</v>
       </c>
-      <c r="P115" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+      <c r="P115" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -4205,9 +4194,8 @@
       <c r="O116" s="5">
         <v>1479</v>
       </c>
-      <c r="P116" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+      <c r="P116" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -4224,9 +4212,8 @@
       <c r="O117" s="5">
         <v>1484</v>
       </c>
-      <c r="P117" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+      <c r="P117" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -4243,9 +4230,8 @@
       <c r="O118" s="5">
         <v>1495</v>
       </c>
-      <c r="P118" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+      <c r="P118" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -4262,9 +4248,8 @@
       <c r="O119" s="5">
         <v>1501</v>
       </c>
-      <c r="P119" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+      <c r="P119" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -4281,9 +4266,8 @@
       <c r="O120" s="5">
         <v>1511</v>
       </c>
-      <c r="P120" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+      <c r="P120" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -4300,9 +4284,8 @@
       <c r="O121" s="5">
         <v>1517</v>
       </c>
-      <c r="P121" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+      <c r="P121" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -4319,9 +4302,8 @@
       <c r="O122" s="5">
         <v>1527</v>
       </c>
-      <c r="P122" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+      <c r="P122" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -4338,9 +4320,8 @@
       <c r="O123" s="5">
         <v>1532</v>
       </c>
-      <c r="P123" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+      <c r="P123" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -4357,9 +4338,8 @@
       <c r="O124" s="5">
         <v>1543</v>
       </c>
-      <c r="P124" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+      <c r="P124" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -4376,9 +4356,8 @@
       <c r="O125" s="5">
         <v>1549</v>
       </c>
-      <c r="P125" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+      <c r="P125" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -4395,9 +4374,8 @@
       <c r="O126" s="5">
         <v>1555</v>
       </c>
-      <c r="P126" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+      <c r="P126" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -4414,9 +4392,8 @@
       <c r="O127" s="5">
         <v>1565</v>
       </c>
-      <c r="P127" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+      <c r="P127" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -4433,9 +4410,8 @@
       <c r="O128" s="5">
         <v>1571</v>
       </c>
-      <c r="P128" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+      <c r="P128" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -4452,9 +4428,8 @@
       <c r="O129" s="5">
         <v>1581</v>
       </c>
-      <c r="P129" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+      <c r="P129" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -4471,9 +4446,8 @@
       <c r="O130" s="5">
         <v>1587</v>
       </c>
-      <c r="P130" s="5" t="e">
-        <f t="shared" si="5"/>
-        <v>#N/A</v>
+      <c r="P130" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -4490,9 +4464,8 @@
       <c r="O131" s="5">
         <v>1596</v>
       </c>
-      <c r="P131" s="5" t="e">
-        <f t="shared" ref="P131:P134" si="6">IF(L131=O131,1,0)</f>
-        <v>#N/A</v>
+      <c r="P131" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -4509,9 +4482,8 @@
       <c r="O132" s="5">
         <v>1607</v>
       </c>
-      <c r="P132" s="5" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
+      <c r="P132" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -4528,9 +4500,8 @@
       <c r="O133" s="5">
         <v>1613</v>
       </c>
-      <c r="P133" s="5" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
+      <c r="P133" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="12:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -4547,9 +4518,8 @@
       <c r="O134" s="5">
         <v>1623</v>
       </c>
-      <c r="P134" s="5" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
+      <c r="P134" s="5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
+++ b/SQL-daily-exercises/LeetCode_SQL_difficult.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VScode-for-cicero\SQL-exercises\SQL-daily-exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1286F4-555E-4C7A-BA88-D8FB66D20E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A572C7-16AE-4F7D-90BD-469C2CE033B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1369,8 +1369,8 @@
   <dimension ref="A1:U134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S132" sqref="S132"/>
+      <pane ySplit="2" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M117" sqref="M117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1380,7 +1380,7 @@
     <col min="5" max="5" width="12.08203125" customWidth="1"/>
     <col min="8" max="8" width="9.75" customWidth="1"/>
     <col min="12" max="12" width="9.9140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="18" customWidth="1"/>
+    <col min="13" max="13" width="28.83203125" customWidth="1"/>
     <col min="14" max="14" width="15.6640625" style="5" customWidth="1"/>
     <col min="15" max="15" width="8.6640625" style="5"/>
     <col min="16" max="16" width="12.6640625" style="5" customWidth="1"/>
